--- a/log/lqr_steering/example_errors.xlsx
+++ b/log/lqr_steering/example_errors.xlsx
@@ -519,7 +519,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>-0.2462617430599738</v>
+        <v>-0.2462617430599739</v>
       </c>
       <c r="B21">
         <v>0.2749266038083977</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116">
-        <v>0.0341983664233365</v>
+        <v>0.03419836642333649</v>
       </c>
       <c r="B116">
         <v>-0.02063573207950942</v>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122">
-        <v>0.03259250588543346</v>
+        <v>0.03259250588543345</v>
       </c>
       <c r="B122">
         <v>-0.02707874796745635</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142">
-        <v>0.03353940615157765</v>
+        <v>0.03353940615157764</v>
       </c>
       <c r="B142">
         <v>-0.02981605084951644</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147">
-        <v>0.03199511406596224</v>
+        <v>0.03199511406596225</v>
       </c>
       <c r="B147">
         <v>-0.02793882154322125</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151">
-        <v>0.03440431809141348</v>
+        <v>0.03440431809141357</v>
       </c>
       <c r="B151">
         <v>-0.02730769376155617</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155">
-        <v>0.03813677095529379</v>
+        <v>0.03813677095529378</v>
       </c>
       <c r="B155">
         <v>-0.006227875292198259</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168">
-        <v>0.04218749077169841</v>
+        <v>0.0421874907716984</v>
       </c>
       <c r="B168">
         <v>-0.01767646254381994</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190">
-        <v>0.04520093737260138</v>
+        <v>0.04520093737260137</v>
       </c>
       <c r="B190">
         <v>-0.02571605621730155</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191">
-        <v>0.04529475001486738</v>
+        <v>0.04529475001486737</v>
       </c>
       <c r="B191">
         <v>-0.031213946205364</v>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="196" spans="1:2">
       <c r="A196">
-        <v>0.0412892424282197</v>
+        <v>0.04128924242821969</v>
       </c>
       <c r="B196">
         <v>-0.03540632550768663</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="197" spans="1:2">
       <c r="A197">
-        <v>0.04044489259650835</v>
+        <v>0.04044489259650836</v>
       </c>
       <c r="B197">
         <v>-0.04268061103454723</v>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="199" spans="1:2">
       <c r="A199">
-        <v>0.03956190565663807</v>
+        <v>0.03956190565663808</v>
       </c>
       <c r="B199">
         <v>-0.03822277724539891</v>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201">
-        <v>0.03806785401638532</v>
+        <v>0.03806785401638531</v>
       </c>
       <c r="B201">
         <v>-0.05042785466179245</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="203" spans="1:2">
       <c r="A203">
-        <v>0.0379079811886036</v>
+        <v>0.03790798118860361</v>
       </c>
       <c r="B203">
         <v>-0.04403059780509544</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="210" spans="1:2">
       <c r="A210">
-        <v>0.03730605644521585</v>
+        <v>0.03730605644521586</v>
       </c>
       <c r="B210">
         <v>-0.04089849299141601</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212">
-        <v>0.03733889897748781</v>
+        <v>0.0373388989774878</v>
       </c>
       <c r="B212">
         <v>-0.03357720162593258</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="223" spans="1:2">
       <c r="A223">
-        <v>0.03655600344284972</v>
+        <v>0.03655600344284973</v>
       </c>
       <c r="B223">
         <v>-0.01975079039648708</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228">
-        <v>0.03517248756249239</v>
+        <v>0.03517248756249238</v>
       </c>
       <c r="B228">
         <v>-0.02977019276025628</v>
@@ -2279,7 +2279,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241">
-        <v>0.0365367791203908</v>
+        <v>0.03653677912039079</v>
       </c>
       <c r="B241">
         <v>-0.0244349956218457</v>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243">
-        <v>0.03584831977793709</v>
+        <v>0.0358483197779371</v>
       </c>
       <c r="B243">
         <v>-0.02241844804259596</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265">
-        <v>0.03057979455148332</v>
+        <v>0.03057979455148333</v>
       </c>
       <c r="B265">
         <v>-0.02300506978696859</v>
@@ -2583,7 +2583,7 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279">
-        <v>0.02608243825347698</v>
+        <v>0.02608243825347699</v>
       </c>
       <c r="B279">
         <v>-0.02467365118358034</v>
@@ -2615,7 +2615,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283">
-        <v>0.02495051574548439</v>
+        <v>0.02495051574548438</v>
       </c>
       <c r="B283">
         <v>-0.0273720200751244</v>
@@ -2679,7 +2679,7 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291">
-        <v>0.02416910912203219</v>
+        <v>0.0241691091220322</v>
       </c>
       <c r="B291">
         <v>-0.0202507107820673</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="303" spans="1:2">
       <c r="A303">
-        <v>0.0237825721565256</v>
+        <v>0.02378257215652559</v>
       </c>
       <c r="B303">
         <v>-0.01492674609546762</v>
@@ -2967,7 +2967,7 @@
     </row>
     <row r="327" spans="1:2">
       <c r="A327">
-        <v>0.02147382034909864</v>
+        <v>0.02147382034909863</v>
       </c>
       <c r="B327">
         <v>-0.01858035854024909</v>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="345" spans="1:2">
       <c r="A345">
-        <v>0.01423490653786378</v>
+        <v>0.01423490653786377</v>
       </c>
       <c r="B345">
         <v>-0.01547655812094817</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="363" spans="1:2">
       <c r="A363">
-        <v>0.00599606387987693</v>
+        <v>0.005996063879876931</v>
       </c>
       <c r="B363">
         <v>-0.01675729571678852</v>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364">
-        <v>0.005964614761334895</v>
+        <v>0.005964614761334896</v>
       </c>
       <c r="B364">
         <v>-0.01455370953777813</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="368" spans="1:2">
       <c r="A368">
-        <v>0.007480880832860172</v>
+        <v>0.007480880832860171</v>
       </c>
       <c r="B368">
         <v>-0.006417348152075508</v>
@@ -3311,7 +3311,7 @@
     </row>
     <row r="370" spans="1:2">
       <c r="A370">
-        <v>0.008862353401981105</v>
+        <v>0.008862353401981106</v>
       </c>
       <c r="B370">
         <v>-0.0007937263834567609</v>
@@ -3327,7 +3327,7 @@
     </row>
     <row r="372" spans="1:2">
       <c r="A372">
-        <v>0.009283931207191811</v>
+        <v>0.009283931207191813</v>
       </c>
       <c r="B372">
         <v>0.001820372884439259</v>
@@ -3383,7 +3383,7 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379">
-        <v>0.005758073297257018</v>
+        <v>0.005758073297257019</v>
       </c>
       <c r="B379">
         <v>-0.005119193917499043</v>
@@ -3607,7 +3607,7 @@
     </row>
     <row r="407" spans="1:2">
       <c r="A407">
-        <v>-0.004374369788247509</v>
+        <v>-0.004374369788247508</v>
       </c>
       <c r="B407">
         <v>-0.007567234563058189</v>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="416" spans="1:2">
       <c r="A416">
-        <v>-0.007438095676366031</v>
+        <v>-0.00743809567636603</v>
       </c>
       <c r="B416">
         <v>-0.003259072705277699</v>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="418" spans="1:2">
       <c r="A418">
-        <v>-0.007756369516013508</v>
+        <v>-0.007756369516013509</v>
       </c>
       <c r="B418">
         <v>0.001802099511140742</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="426" spans="1:2">
       <c r="A426">
-        <v>-0.008644395033606464</v>
+        <v>-0.008644395033606462</v>
       </c>
       <c r="B426">
         <v>0.00847317372387657</v>
@@ -3783,7 +3783,7 @@
     </row>
     <row r="429" spans="1:2">
       <c r="A429">
-        <v>-0.008727149985810591</v>
+        <v>-0.008727149985810589</v>
       </c>
       <c r="B429">
         <v>0.01236969812271038</v>
@@ -3951,7 +3951,7 @@
     </row>
     <row r="450" spans="1:2">
       <c r="A450">
-        <v>-0.02096652299989681</v>
+        <v>-0.0209665229998968</v>
       </c>
       <c r="B450">
         <v>0.0008211925793375485</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="492" spans="1:2">
       <c r="A492">
-        <v>-0.04010559553624329</v>
+        <v>-0.0401055955362433</v>
       </c>
       <c r="B492">
         <v>0.02445768617707689</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497">
-        <v>-0.0431594890767974</v>
+        <v>-0.04315948907679739</v>
       </c>
       <c r="B497">
         <v>0.02384836522209399</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="519" spans="1:2">
       <c r="A519">
-        <v>-0.04647829065385454</v>
+        <v>-0.04647829065385453</v>
       </c>
       <c r="B519">
         <v>0.04610377690754008</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523">
-        <v>-0.04449401948957707</v>
+        <v>-0.04449401948957708</v>
       </c>
       <c r="B523">
         <v>0.05588261937599981</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="534" spans="1:2">
       <c r="A534">
-        <v>-0.03841726107024207</v>
+        <v>-0.03841726107024206</v>
       </c>
       <c r="B534">
         <v>0.04683999235373371</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="536" spans="1:2">
       <c r="A536">
-        <v>-0.03829985205326272</v>
+        <v>-0.03829985205326273</v>
       </c>
       <c r="B536">
         <v>0.04759940075833269</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="539" spans="1:2">
       <c r="A539">
-        <v>-0.0391064415558779</v>
+        <v>-0.03910644155587791</v>
       </c>
       <c r="B539">
         <v>0.03252762292480327</v>
@@ -4911,7 +4911,7 @@
     </row>
     <row r="570" spans="1:2">
       <c r="A570">
-        <v>-0.01962304045506887</v>
+        <v>-0.01962304045506886</v>
       </c>
       <c r="B570">
         <v>0.0267530348831273</v>
@@ -4919,7 +4919,7 @@
     </row>
     <row r="571" spans="1:2">
       <c r="A571">
-        <v>-0.01980082412287357</v>
+        <v>-0.01980082412287358</v>
       </c>
       <c r="B571">
         <v>0.02457793734702518</v>
@@ -5015,7 +5015,7 @@
     </row>
     <row r="583" spans="1:2">
       <c r="A583">
-        <v>-0.008691736873120942</v>
+        <v>-0.008691736873120944</v>
       </c>
       <c r="B583">
         <v>0.02315457604744031</v>
@@ -5023,7 +5023,7 @@
     </row>
     <row r="584" spans="1:2">
       <c r="A584">
-        <v>-0.007613584887836106</v>
+        <v>-0.007613584887836107</v>
       </c>
       <c r="B584">
         <v>0.02297265580196672</v>
@@ -5055,7 +5055,7 @@
     </row>
     <row r="588" spans="1:2">
       <c r="A588">
-        <v>-0.005144349376661828</v>
+        <v>-0.005144349376661827</v>
       </c>
       <c r="B588">
         <v>0.01871847284320083</v>
@@ -5119,7 +5119,7 @@
     </row>
     <row r="596" spans="1:2">
       <c r="A596">
-        <v>-0.004637983038497748</v>
+        <v>-0.004637983038497749</v>
       </c>
       <c r="B596">
         <v>-1.104121468253894E-05</v>
@@ -5279,7 +5279,7 @@
     </row>
     <row r="616" spans="1:2">
       <c r="A616">
-        <v>0.0108422726749683</v>
+        <v>0.01084227267496831</v>
       </c>
       <c r="B616">
         <v>0.005662452452989797</v>
@@ -5367,7 +5367,7 @@
     </row>
     <row r="627" spans="1:2">
       <c r="A627">
-        <v>0.0182960878637743</v>
+        <v>0.01829608786377429</v>
       </c>
       <c r="B627">
         <v>-0.001159382998514147</v>
@@ -5439,7 +5439,7 @@
     </row>
     <row r="636" spans="1:2">
       <c r="A636">
-        <v>0.02588645912211648</v>
+        <v>0.02588645912211647</v>
       </c>
       <c r="B636">
         <v>-0.009991067583900115</v>
@@ -5479,7 +5479,7 @@
     </row>
     <row r="641" spans="1:2">
       <c r="A641">
-        <v>0.02607593079498136</v>
+        <v>0.02607593079498135</v>
       </c>
       <c r="B641">
         <v>-0.02218581655300511</v>
@@ -5519,7 +5519,7 @@
     </row>
     <row r="646" spans="1:2">
       <c r="A646">
-        <v>0.0284806536404842</v>
+        <v>0.02848065364048421</v>
       </c>
       <c r="B646">
         <v>-0.02626760418078566</v>
@@ -5639,7 +5639,7 @@
     </row>
     <row r="661" spans="1:2">
       <c r="A661">
-        <v>0.03923158299474179</v>
+        <v>0.03923158299474178</v>
       </c>
       <c r="B661">
         <v>-0.02623093119605535</v>
@@ -5671,7 +5671,7 @@
     </row>
     <row r="665" spans="1:2">
       <c r="A665">
-        <v>0.04185506516647695</v>
+        <v>0.04185506516647694</v>
       </c>
       <c r="B665">
         <v>-0.02392321749549353</v>
@@ -5695,7 +5695,7 @@
     </row>
     <row r="668" spans="1:2">
       <c r="A668">
-        <v>0.04180949018769516</v>
+        <v>0.04180949018769187</v>
       </c>
       <c r="B668">
         <v>-0.0322575709259203</v>
@@ -5767,7 +5767,7 @@
     </row>
     <row r="677" spans="1:2">
       <c r="A677">
-        <v>0.04719488628845718</v>
+        <v>0.04719488628845719</v>
       </c>
       <c r="B677">
         <v>-0.02941200084256623</v>
@@ -5815,7 +5815,7 @@
     </row>
     <row r="683" spans="1:2">
       <c r="A683">
-        <v>0.05223660210012481</v>
+        <v>0.05223660210012482</v>
       </c>
       <c r="B683">
         <v>-0.03298462505809541</v>
@@ -5903,7 +5903,7 @@
     </row>
     <row r="694" spans="1:2">
       <c r="A694">
-        <v>0.05785265777230827</v>
+        <v>0.05785265777230828</v>
       </c>
       <c r="B694">
         <v>-0.04894720459721214</v>
@@ -5943,7 +5943,7 @@
     </row>
     <row r="699" spans="1:2">
       <c r="A699">
-        <v>0.06056542672667116</v>
+        <v>0.06056542672667117</v>
       </c>
       <c r="B699">
         <v>-0.0535032581135888</v>
@@ -5959,7 +5959,7 @@
     </row>
     <row r="701" spans="1:2">
       <c r="A701">
-        <v>0.06238049078601243</v>
+        <v>0.06238049078601242</v>
       </c>
       <c r="B701">
         <v>-0.05066207096060493</v>
@@ -5999,7 +5999,7 @@
     </row>
     <row r="706" spans="1:2">
       <c r="A706">
-        <v>0.06551996337684657</v>
+        <v>0.06551996337684658</v>
       </c>
       <c r="B706">
         <v>-0.05330376534252146</v>
@@ -6071,7 +6071,7 @@
     </row>
     <row r="715" spans="1:2">
       <c r="A715">
-        <v>0.06799646717048917</v>
+        <v>0.06799646717048916</v>
       </c>
       <c r="B715">
         <v>-0.05722430482340801</v>
@@ -6103,7 +6103,7 @@
     </row>
     <row r="719" spans="1:2">
       <c r="A719">
-        <v>0.07043423075597806</v>
+        <v>0.07043423075597807</v>
       </c>
       <c r="B719">
         <v>-0.06813033986616013</v>
@@ -6183,7 +6183,7 @@
     </row>
     <row r="729" spans="1:2">
       <c r="A729">
-        <v>0.08689269434102964</v>
+        <v>0.08689269434102963</v>
       </c>
       <c r="B729">
         <v>-0.05008773378899267</v>
@@ -6191,7 +6191,7 @@
     </row>
     <row r="730" spans="1:2">
       <c r="A730">
-        <v>0.08814108439327986</v>
+        <v>0.08814108439327988</v>
       </c>
       <c r="B730">
         <v>-0.03784428048554789</v>
@@ -6199,7 +6199,7 @@
     </row>
     <row r="731" spans="1:2">
       <c r="A731">
-        <v>0.08890989844511014</v>
+        <v>0.08890989844511013</v>
       </c>
       <c r="B731">
         <v>-0.04817480315757061</v>
@@ -6223,7 +6223,7 @@
     </row>
     <row r="734" spans="1:2">
       <c r="A734">
-        <v>0.08915705483170418</v>
+        <v>0.08915705483170419</v>
       </c>
       <c r="B734">
         <v>-0.06232443650780128</v>
@@ -6303,7 +6303,7 @@
     </row>
     <row r="744" spans="1:2">
       <c r="A744">
-        <v>0.07239618576212802</v>
+        <v>0.07239618576212803</v>
       </c>
       <c r="B744">
         <v>-0.1264998576712486</v>
@@ -6439,7 +6439,7 @@
     </row>
     <row r="761" spans="1:2">
       <c r="A761">
-        <v>0.08718055067395701</v>
+        <v>0.087180550673957</v>
       </c>
       <c r="B761">
         <v>-0.04490291300738791</v>
@@ -6479,7 +6479,7 @@
     </row>
     <row r="766" spans="1:2">
       <c r="A766">
-        <v>0.08595235156474158</v>
+        <v>0.08595235156474157</v>
       </c>
       <c r="B766">
         <v>-0.04728214758813731</v>
@@ -6495,7 +6495,7 @@
     </row>
     <row r="768" spans="1:2">
       <c r="A768">
-        <v>0.08252765099077468</v>
+        <v>0.08252765099077466</v>
       </c>
       <c r="B768">
         <v>-0.05264180288045672</v>
@@ -6511,7 +6511,7 @@
     </row>
     <row r="770" spans="1:2">
       <c r="A770">
-        <v>0.07970428723452262</v>
+        <v>0.07970428723452261</v>
       </c>
       <c r="B770">
         <v>-0.07595543353293754</v>
@@ -6559,7 +6559,7 @@
     </row>
     <row r="776" spans="1:2">
       <c r="A776">
-        <v>0.07533733816747033</v>
+        <v>0.07533733816747032</v>
       </c>
       <c r="B776">
         <v>-0.07613825796729312</v>
@@ -6607,7 +6607,7 @@
     </row>
     <row r="782" spans="1:2">
       <c r="A782">
-        <v>0.07623963300286449</v>
+        <v>0.07623963300286447</v>
       </c>
       <c r="B782">
         <v>-0.07619400242810759</v>
@@ -6647,7 +6647,7 @@
     </row>
     <row r="787" spans="1:2">
       <c r="A787">
-        <v>0.07739605042009917</v>
+        <v>0.07739605042009919</v>
       </c>
       <c r="B787">
         <v>-0.06669927477464377</v>
@@ -6679,7 +6679,7 @@
     </row>
     <row r="791" spans="1:2">
       <c r="A791">
-        <v>0.07468563107810355</v>
+        <v>0.07468563107810357</v>
       </c>
       <c r="B791">
         <v>-0.07764091633776138</v>
@@ -6695,7 +6695,7 @@
     </row>
     <row r="793" spans="1:2">
       <c r="A793">
-        <v>0.07287502637352229</v>
+        <v>0.07287502637352228</v>
       </c>
       <c r="B793">
         <v>-0.07590453170842704</v>
@@ -6719,7 +6719,7 @@
     </row>
     <row r="796" spans="1:2">
       <c r="A796">
-        <v>0.06867788938788383</v>
+        <v>0.06867788938788384</v>
       </c>
       <c r="B796">
         <v>-0.08364932318776797</v>
@@ -6767,7 +6767,7 @@
     </row>
     <row r="802" spans="1:2">
       <c r="A802">
-        <v>0.06098041826532197</v>
+        <v>0.06098041826532196</v>
       </c>
       <c r="B802">
         <v>-0.07249978108919475</v>
@@ -6775,7 +6775,7 @@
     </row>
     <row r="803" spans="1:2">
       <c r="A803">
-        <v>0.06128357371619257</v>
+        <v>0.06128357371619258</v>
       </c>
       <c r="B803">
         <v>-0.07761522650075836</v>
@@ -6823,7 +6823,7 @@
     </row>
     <row r="809" spans="1:2">
       <c r="A809">
-        <v>0.06369036991704713</v>
+        <v>0.06369036991704712</v>
       </c>
       <c r="B809">
         <v>-0.06049622995856385</v>
@@ -6831,7 +6831,7 @@
     </row>
     <row r="810" spans="1:2">
       <c r="A810">
-        <v>0.06372394071082477</v>
+        <v>0.06372394071082478</v>
       </c>
       <c r="B810">
         <v>-0.06588735081182939</v>
@@ -6879,7 +6879,7 @@
     </row>
     <row r="816" spans="1:2">
       <c r="A816">
-        <v>0.07036851918328427</v>
+        <v>0.07036851918328428</v>
       </c>
       <c r="B816">
         <v>-0.02720755987799262</v>
@@ -7087,7 +7087,7 @@
     </row>
     <row r="842" spans="1:2">
       <c r="A842">
-        <v>0.08624080858898867</v>
+        <v>0.08624080858898865</v>
       </c>
       <c r="B842">
         <v>-0.04903398864349562</v>
@@ -7095,7 +7095,7 @@
     </row>
     <row r="843" spans="1:2">
       <c r="A843">
-        <v>0.08886727406128747</v>
+        <v>0.08886727406128746</v>
       </c>
       <c r="B843">
         <v>-0.05752142174004593</v>
@@ -7111,7 +7111,7 @@
     </row>
     <row r="845" spans="1:2">
       <c r="A845">
-        <v>0.09305637668923422</v>
+        <v>0.09305637668923421</v>
       </c>
       <c r="B845">
         <v>-0.04287836980228565</v>
@@ -7127,7 +7127,7 @@
     </row>
     <row r="847" spans="1:2">
       <c r="A847">
-        <v>0.09545844174586751</v>
+        <v>0.09545844174586753</v>
       </c>
       <c r="B847">
         <v>-0.03099400587625922</v>
@@ -7175,7 +7175,7 @@
     </row>
     <row r="853" spans="1:2">
       <c r="A853">
-        <v>0.09904525573615922</v>
+        <v>0.0990452557361592</v>
       </c>
       <c r="B853">
         <v>-0.05003413961592251</v>
@@ -7263,7 +7263,7 @@
     </row>
     <row r="864" spans="1:2">
       <c r="A864">
-        <v>0.0942209698969477</v>
+        <v>0.09422096989694771</v>
       </c>
       <c r="B864">
         <v>-0.1240891620985707</v>
@@ -7663,7 +7663,7 @@
     </row>
     <row r="914" spans="1:2">
       <c r="A914">
-        <v>0.09076722313144722</v>
+        <v>0.09076722313144721</v>
       </c>
       <c r="B914">
         <v>-0.1130235355850271</v>
@@ -7847,7 +7847,7 @@
     </row>
     <row r="937" spans="1:2">
       <c r="A937">
-        <v>0.05235270032027506</v>
+        <v>0.05235270032027507</v>
       </c>
       <c r="B937">
         <v>-0.05356596634672339</v>
@@ -8095,7 +8095,7 @@
     </row>
     <row r="968" spans="1:2">
       <c r="A968">
-        <v>0.009040929144859197</v>
+        <v>0.009040929144859195</v>
       </c>
       <c r="B968">
         <v>-0.02224969970620805</v>
@@ -8111,7 +8111,7 @@
     </row>
     <row r="970" spans="1:2">
       <c r="A970">
-        <v>0.007520869721518119</v>
+        <v>0.007520869721518118</v>
       </c>
       <c r="B970">
         <v>-0.01702679901386617</v>
@@ -8231,7 +8231,7 @@
     </row>
     <row r="985" spans="1:2">
       <c r="A985">
-        <v>-0.00888703611312059</v>
+        <v>-0.008887036113120592</v>
       </c>
       <c r="B985">
         <v>-0.01237284509651193</v>
@@ -8791,7 +8791,7 @@
     </row>
     <row r="1055" spans="1:2">
       <c r="A1055">
-        <v>-0.08492508848884459</v>
+        <v>-0.0849250884888446</v>
       </c>
       <c r="B1055">
         <v>0.02463213429378719</v>
@@ -8839,7 +8839,7 @@
     </row>
     <row r="1061" spans="1:2">
       <c r="A1061">
-        <v>-0.09080414117269284</v>
+        <v>-0.09080414117269285</v>
       </c>
       <c r="B1061">
         <v>0.01258132469967599</v>
@@ -8879,7 +8879,7 @@
     </row>
     <row r="1066" spans="1:2">
       <c r="A1066">
-        <v>-0.09215869599067891</v>
+        <v>-0.0921586959906789</v>
       </c>
       <c r="B1066">
         <v>0.06161338564338958</v>
@@ -8903,7 +8903,7 @@
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069">
-        <v>-0.09047582855242747</v>
+        <v>-0.09047582855242749</v>
       </c>
       <c r="B1069">
         <v>0.06830545700108104</v>
@@ -8911,7 +8911,7 @@
     </row>
     <row r="1070" spans="1:2">
       <c r="A1070">
-        <v>-0.0903386338616034</v>
+        <v>-0.09033863386160339</v>
       </c>
       <c r="B1070">
         <v>0.08833213751611257</v>
@@ -8927,7 +8927,7 @@
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072">
-        <v>-0.09074457358307206</v>
+        <v>-0.09074457358307204</v>
       </c>
       <c r="B1072">
         <v>0.0684482982667145</v>
@@ -8959,7 +8959,7 @@
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076">
-        <v>-0.09161589533935455</v>
+        <v>-0.09161589533935453</v>
       </c>
       <c r="B1076">
         <v>0.08307436967570014</v>
@@ -8975,7 +8975,7 @@
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078">
-        <v>-0.09119057389506899</v>
+        <v>-0.091190573895069</v>
       </c>
       <c r="B1078">
         <v>0.1119653482010077</v>
@@ -9039,7 +9039,7 @@
     </row>
     <row r="1086" spans="1:2">
       <c r="A1086">
-        <v>-0.08773267666893145</v>
+        <v>-0.08773267666893146</v>
       </c>
       <c r="B1086">
         <v>0.08384727376900747</v>
@@ -9071,7 +9071,7 @@
     </row>
     <row r="1090" spans="1:2">
       <c r="A1090">
-        <v>-0.0838949785991053</v>
+        <v>-0.08389497859910529</v>
       </c>
       <c r="B1090">
         <v>0.08963228020005909</v>
@@ -9191,7 +9191,7 @@
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105">
-        <v>-0.06202466377923173</v>
+        <v>-0.06202466377923174</v>
       </c>
       <c r="B1105">
         <v>0.0818071800342528</v>
@@ -9279,7 +9279,7 @@
     </row>
     <row r="1116" spans="1:2">
       <c r="A1116">
-        <v>-0.03974217168006604</v>
+        <v>-0.03974217168006603</v>
       </c>
       <c r="B1116">
         <v>0.07328610959880377</v>
@@ -9439,7 +9439,7 @@
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136">
-        <v>-0.008417405112385073</v>
+        <v>-0.008417405112385075</v>
       </c>
       <c r="B1136">
         <v>0.03929842432494812</v>
@@ -9487,7 +9487,7 @@
     </row>
     <row r="1142" spans="1:2">
       <c r="A1142">
-        <v>-0.0007060268611622797</v>
+        <v>-0.0007060268611622796</v>
       </c>
       <c r="B1142">
         <v>0.03676102343618526</v>
@@ -9527,7 +9527,7 @@
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147">
-        <v>0.004914232393497996</v>
+        <v>0.004914232393497995</v>
       </c>
       <c r="B1147">
         <v>0.02109041391447519</v>
@@ -9831,7 +9831,7 @@
     </row>
     <row r="1185" spans="1:2">
       <c r="A1185">
-        <v>0.04936741318908805</v>
+        <v>0.04936741318908804</v>
       </c>
       <c r="B1185">
         <v>-0.02822625946811108</v>
@@ -9871,7 +9871,7 @@
     </row>
     <row r="1190" spans="1:2">
       <c r="A1190">
-        <v>0.05230473925131801</v>
+        <v>0.052304739251318</v>
       </c>
       <c r="B1190">
         <v>-0.0214421566455183</v>
@@ -10079,7 +10079,7 @@
     </row>
     <row r="1216" spans="1:2">
       <c r="A1216">
-        <v>0.05045568667882647</v>
+        <v>0.05045568667882646</v>
       </c>
       <c r="B1216">
         <v>-0.0348137126148913</v>
@@ -10199,7 +10199,7 @@
     </row>
     <row r="1231" spans="1:2">
       <c r="A1231">
-        <v>0.04255646144622057</v>
+        <v>0.04255646144622046</v>
       </c>
       <c r="B1231">
         <v>-0.04186811752498976</v>
@@ -10239,7 +10239,7 @@
     </row>
     <row r="1236" spans="1:2">
       <c r="A1236">
-        <v>0.03928556306178875</v>
+        <v>0.03928556306178874</v>
       </c>
       <c r="B1236">
         <v>-0.02976455424659719</v>
@@ -10343,7 +10343,7 @@
     </row>
     <row r="1249" spans="1:2">
       <c r="A1249">
-        <v>0.03388754517199703</v>
+        <v>0.03388754517199699</v>
       </c>
       <c r="B1249">
         <v>-0.04004708663062306</v>
@@ -11735,7 +11735,7 @@
     </row>
     <row r="1423" spans="1:2">
       <c r="A1423">
-        <v>0.02530194214524766</v>
+        <v>0.02530194214524767</v>
       </c>
       <c r="B1423">
         <v>-0.02262706833698225</v>
@@ -11775,7 +11775,7 @@
     </row>
     <row r="1428" spans="1:2">
       <c r="A1428">
-        <v>0.03152658631667743</v>
+        <v>0.03152658631667744</v>
       </c>
       <c r="B1428">
         <v>-0.01702232286599514</v>
@@ -11927,7 +11927,7 @@
     </row>
     <row r="1447" spans="1:2">
       <c r="A1447">
-        <v>0.05445604494808433</v>
+        <v>0.05445604494808432</v>
       </c>
       <c r="B1447">
         <v>-0.02854700889650275</v>
@@ -11943,7 +11943,7 @@
     </row>
     <row r="1449" spans="1:2">
       <c r="A1449">
-        <v>0.05641692963547938</v>
+        <v>0.05641692963547939</v>
       </c>
       <c r="B1449">
         <v>-0.02613796552225978</v>
@@ -11975,7 +11975,7 @@
     </row>
     <row r="1453" spans="1:2">
       <c r="A1453">
-        <v>0.06103355909079577</v>
+        <v>0.06103355909079578</v>
       </c>
       <c r="B1453">
         <v>-0.04031430689225601</v>
@@ -11983,7 +11983,7 @@
     </row>
     <row r="1454" spans="1:2">
       <c r="A1454">
-        <v>0.06177158923970776</v>
+        <v>0.06177158923970775</v>
       </c>
       <c r="B1454">
         <v>-0.02815376872351472</v>
@@ -11991,7 +11991,7 @@
     </row>
     <row r="1455" spans="1:2">
       <c r="A1455">
-        <v>0.06251737785722219</v>
+        <v>0.06251737785722221</v>
       </c>
       <c r="B1455">
         <v>-0.03900626016792685</v>
@@ -12079,7 +12079,7 @@
     </row>
     <row r="1466" spans="1:2">
       <c r="A1466">
-        <v>0.07228973451444123</v>
+        <v>0.07228973451444125</v>
       </c>
       <c r="B1466">
         <v>-0.05243045579378425</v>
@@ -12087,7 +12087,7 @@
     </row>
     <row r="1467" spans="1:2">
       <c r="A1467">
-        <v>0.07330818756315297</v>
+        <v>0.07330818756315298</v>
       </c>
       <c r="B1467">
         <v>-0.06140595758743483</v>
@@ -12095,7 +12095,7 @@
     </row>
     <row r="1468" spans="1:2">
       <c r="A1468">
-        <v>0.07475645621637592</v>
+        <v>0.0747564562163759</v>
       </c>
       <c r="B1468">
         <v>-0.044669926310414</v>
@@ -12111,7 +12111,7 @@
     </row>
     <row r="1470" spans="1:2">
       <c r="A1470">
-        <v>0.07605021470906875</v>
+        <v>0.07605021470906877</v>
       </c>
       <c r="B1470">
         <v>-0.06573374557945932</v>
@@ -12143,7 +12143,7 @@
     </row>
     <row r="1474" spans="1:2">
       <c r="A1474">
-        <v>0.08162954868365757</v>
+        <v>0.08162954868365756</v>
       </c>
       <c r="B1474">
         <v>-0.04999779905857871</v>
@@ -12159,7 +12159,7 @@
     </row>
     <row r="1476" spans="1:2">
       <c r="A1476">
-        <v>0.08301326720604005</v>
+        <v>0.08301326720604006</v>
       </c>
       <c r="B1476">
         <v>-0.04321271036237739</v>
@@ -12167,7 +12167,7 @@
     </row>
     <row r="1477" spans="1:2">
       <c r="A1477">
-        <v>0.08404461741101299</v>
+        <v>0.08404461741101298</v>
       </c>
       <c r="B1477">
         <v>-0.05517551573642265</v>
@@ -12183,7 +12183,7 @@
     </row>
     <row r="1479" spans="1:2">
       <c r="A1479">
-        <v>0.08445853470598608</v>
+        <v>0.08445853470598609</v>
       </c>
       <c r="B1479">
         <v>-0.05062663475419615</v>
@@ -12191,7 +12191,7 @@
     </row>
     <row r="1480" spans="1:2">
       <c r="A1480">
-        <v>0.0843519846841114</v>
+        <v>0.08435198468411141</v>
       </c>
       <c r="B1480">
         <v>-0.06518037253335951</v>
@@ -12247,7 +12247,7 @@
     </row>
     <row r="1487" spans="1:2">
       <c r="A1487">
-        <v>0.08157371994496515</v>
+        <v>0.08157371994496516</v>
       </c>
       <c r="B1487">
         <v>-0.1000606225639284</v>
@@ -12279,7 +12279,7 @@
     </row>
     <row r="1491" spans="1:2">
       <c r="A1491">
-        <v>0.08381936348087583</v>
+        <v>0.08381936348087585</v>
       </c>
       <c r="B1491">
         <v>-0.08165813377991249</v>
@@ -12375,7 +12375,7 @@
     </row>
     <row r="1503" spans="1:2">
       <c r="A1503">
-        <v>0.09818478081237114</v>
+        <v>0.09818478081237113</v>
       </c>
       <c r="B1503">
         <v>-0.06642039087106966</v>
@@ -12383,7 +12383,7 @@
     </row>
     <row r="1504" spans="1:2">
       <c r="A1504">
-        <v>0.09876019410400308</v>
+        <v>0.09876019410400309</v>
       </c>
       <c r="B1504">
         <v>-0.07880289851350053</v>
@@ -12527,7 +12527,7 @@
     </row>
     <row r="1522" spans="1:2">
       <c r="A1522">
-        <v>0.09850840716354645</v>
+        <v>0.09850840716354646</v>
       </c>
       <c r="B1522">
         <v>-0.1263630135078166</v>
@@ -12711,7 +12711,7 @@
     </row>
     <row r="1545" spans="1:2">
       <c r="A1545">
-        <v>0.09749169572734342</v>
+        <v>0.09749169572734341</v>
       </c>
       <c r="B1545">
         <v>-0.09185479506724104</v>
@@ -12719,7 +12719,7 @@
     </row>
     <row r="1546" spans="1:2">
       <c r="A1546">
-        <v>0.09551570489712688</v>
+        <v>0.09551570489712687</v>
       </c>
       <c r="B1546">
         <v>-0.1025881829061874</v>
@@ -12727,7 +12727,7 @@
     </row>
     <row r="1547" spans="1:2">
       <c r="A1547">
-        <v>0.09464525229227808</v>
+        <v>0.09464525229227806</v>
       </c>
       <c r="B1547">
         <v>-0.08351060084559947</v>
@@ -12767,7 +12767,7 @@
     </row>
     <row r="1552" spans="1:2">
       <c r="A1552">
-        <v>0.08633909544044761</v>
+        <v>0.0863390954404476</v>
       </c>
       <c r="B1552">
         <v>-0.1058372727157861</v>
@@ -12783,7 +12783,7 @@
     </row>
     <row r="1554" spans="1:2">
       <c r="A1554">
-        <v>0.08277894370086218</v>
+        <v>0.08277894370086217</v>
       </c>
       <c r="B1554">
         <v>-0.09838238087891238</v>
@@ -12807,7 +12807,7 @@
     </row>
     <row r="1557" spans="1:2">
       <c r="A1557">
-        <v>0.07842910732834361</v>
+        <v>0.0784291073283436</v>
       </c>
       <c r="B1557">
         <v>-0.09567026997636852</v>
@@ -12815,7 +12815,7 @@
     </row>
     <row r="1558" spans="1:2">
       <c r="A1558">
-        <v>0.07736971646504352</v>
+        <v>0.07736971646504351</v>
       </c>
       <c r="B1558">
         <v>-0.1016409036248556</v>
@@ -12823,7 +12823,7 @@
     </row>
     <row r="1559" spans="1:2">
       <c r="A1559">
-        <v>0.07648220982563655</v>
+        <v>0.07648220982563654</v>
       </c>
       <c r="B1559">
         <v>-0.08143552516835451</v>
@@ -12831,7 +12831,7 @@
     </row>
     <row r="1560" spans="1:2">
       <c r="A1560">
-        <v>0.0756630580450743</v>
+        <v>0.07566305804507428</v>
       </c>
       <c r="B1560">
         <v>-0.0879662749116088</v>
@@ -12879,7 +12879,7 @@
     </row>
     <row r="1566" spans="1:2">
       <c r="A1566">
-        <v>0.06946859901416721</v>
+        <v>0.0694685990141672</v>
       </c>
       <c r="B1566">
         <v>-0.0734767278777575</v>
@@ -12975,7 +12975,7 @@
     </row>
     <row r="1578" spans="1:2">
       <c r="A1578">
-        <v>0.0575346199850818</v>
+        <v>0.05753461998508179</v>
       </c>
       <c r="B1578">
         <v>-0.05009448157439156</v>
@@ -12999,7 +12999,7 @@
     </row>
     <row r="1581" spans="1:2">
       <c r="A1581">
-        <v>0.0548365650450105</v>
+        <v>0.05483656504501049</v>
       </c>
       <c r="B1581">
         <v>-0.04576775881103545</v>
@@ -13047,7 +13047,7 @@
     </row>
     <row r="1587" spans="1:2">
       <c r="A1587">
-        <v>0.04915247885594758</v>
+        <v>0.04915247885594757</v>
       </c>
       <c r="B1587">
         <v>-0.06006107151050166</v>
@@ -13119,7 +13119,7 @@
     </row>
     <row r="1596" spans="1:2">
       <c r="A1596">
-        <v>0.04312592625819966</v>
+        <v>0.04312592625819967</v>
       </c>
       <c r="B1596">
         <v>-0.04865476225581267</v>
@@ -13263,7 +13263,7 @@
     </row>
     <row r="1614" spans="1:2">
       <c r="A1614">
-        <v>0.0357694555015617</v>
+        <v>0.03576945550156169</v>
       </c>
       <c r="B1614">
         <v>-0.02968318577746931</v>
@@ -13319,7 +13319,7 @@
     </row>
     <row r="1621" spans="1:2">
       <c r="A1621">
-        <v>0.03471182736378807</v>
+        <v>0.03471182736378808</v>
       </c>
       <c r="B1621">
         <v>-0.02718821286641182</v>
@@ -13343,7 +13343,7 @@
     </row>
     <row r="1624" spans="1:2">
       <c r="A1624">
-        <v>0.03410460699997644</v>
+        <v>0.03410460699997645</v>
       </c>
       <c r="B1624">
         <v>-0.02527844722928041</v>
@@ -13551,7 +13551,7 @@
     </row>
     <row r="1650" spans="1:2">
       <c r="A1650">
-        <v>0.03100343254854881</v>
+        <v>0.03100343254854882</v>
       </c>
       <c r="B1650">
         <v>-0.0214042749448069</v>
@@ -13615,7 +13615,7 @@
     </row>
     <row r="1658" spans="1:2">
       <c r="A1658">
-        <v>0.02567877802685584</v>
+        <v>0.02567877802685583</v>
       </c>
       <c r="B1658">
         <v>-0.02501574159762487</v>
@@ -13631,7 +13631,7 @@
     </row>
     <row r="1660" spans="1:2">
       <c r="A1660">
-        <v>0.02464620786046771</v>
+        <v>0.02464620786046772</v>
       </c>
       <c r="B1660">
         <v>-0.03031226608680848</v>
@@ -13807,7 +13807,7 @@
     </row>
     <row r="1682" spans="1:2">
       <c r="A1682">
-        <v>0.01456264117182226</v>
+        <v>0.01456264117182225</v>
       </c>
       <c r="B1682">
         <v>-0.01590479812140089</v>
@@ -13863,7 +13863,7 @@
     </row>
     <row r="1689" spans="1:2">
       <c r="A1689">
-        <v>0.00903064495985129</v>
+        <v>0.009030644959851291</v>
       </c>
       <c r="B1689">
         <v>-0.01716234670099892</v>
@@ -13887,7 +13887,7 @@
     </row>
     <row r="1692" spans="1:2">
       <c r="A1692">
-        <v>0.006354237221044742</v>
+        <v>0.006354237221044743</v>
       </c>
       <c r="B1692">
         <v>-0.01925153915998523</v>
@@ -13935,7 +13935,7 @@
     </row>
     <row r="1698" spans="1:2">
       <c r="A1698">
-        <v>0.00628742944630261</v>
+        <v>0.006287429446302609</v>
       </c>
       <c r="B1698">
         <v>-0.01001987709437557</v>
@@ -13967,7 +13967,7 @@
     </row>
     <row r="1702" spans="1:2">
       <c r="A1702">
-        <v>0.007700249948594641</v>
+        <v>0.00770024994859464</v>
       </c>
       <c r="B1702">
         <v>-0.002059090331855806</v>
@@ -13991,7 +13991,7 @@
     </row>
     <row r="1705" spans="1:2">
       <c r="A1705">
-        <v>0.006848881874526503</v>
+        <v>0.006848881874526502</v>
       </c>
       <c r="B1705">
         <v>-0.001781250344095042</v>
@@ -13999,7 +13999,7 @@
     </row>
     <row r="1706" spans="1:2">
       <c r="A1706">
-        <v>0.006141300125874214</v>
+        <v>0.006141300125874215</v>
       </c>
       <c r="B1706">
         <v>-0.002848833827596042</v>
@@ -14183,7 +14183,7 @@
     </row>
     <row r="1729" spans="1:2">
       <c r="A1729">
-        <v>-0.004841290700554899</v>
+        <v>-0.004841290700554898</v>
       </c>
       <c r="B1729">
         <v>0.0008451242368714418</v>
@@ -14199,7 +14199,7 @@
     </row>
     <row r="1731" spans="1:2">
       <c r="A1731">
-        <v>-0.00547679733592602</v>
+        <v>-0.005476797335926019</v>
       </c>
       <c r="B1731">
         <v>0.0009665684519730711</v>
@@ -14207,7 +14207,7 @@
     </row>
     <row r="1732" spans="1:2">
       <c r="A1732">
-        <v>-0.005679524027352025</v>
+        <v>-0.005679524027352026</v>
       </c>
       <c r="B1732">
         <v>0.003399182209522511</v>
@@ -14271,7 +14271,7 @@
     </row>
     <row r="1740" spans="1:2">
       <c r="A1740">
-        <v>-0.009657028504344446</v>
+        <v>-0.009657028504344448</v>
       </c>
       <c r="B1740">
         <v>0.004051308195947456</v>
@@ -14399,7 +14399,7 @@
     </row>
     <row r="1756" spans="1:2">
       <c r="A1756">
-        <v>-0.02291281072491021</v>
+        <v>-0.0229128107249102</v>
       </c>
       <c r="B1756">
         <v>0.0056111799809897</v>
@@ -14519,7 +14519,7 @@
     </row>
     <row r="1771" spans="1:2">
       <c r="A1771">
-        <v>-0.03173022057539797</v>
+        <v>-0.03173022057539798</v>
       </c>
       <c r="B1771">
         <v>0.01600240373004214</v>
@@ -14535,7 +14535,7 @@
     </row>
     <row r="1773" spans="1:2">
       <c r="A1773">
-        <v>-0.03492359333348144</v>
+        <v>-0.03492359333348145</v>
       </c>
       <c r="B1773">
         <v>0.009218879410385128</v>
@@ -14615,7 +14615,7 @@
     </row>
     <row r="1783" spans="1:2">
       <c r="A1783">
-        <v>-0.04507750744219976</v>
+        <v>-0.04507750744219975</v>
       </c>
       <c r="B1783">
         <v>0.02840178383863545</v>
@@ -14687,7 +14687,7 @@
     </row>
     <row r="1792" spans="1:2">
       <c r="A1792">
-        <v>-0.05068136957696026</v>
+        <v>-0.05068136957696027</v>
       </c>
       <c r="B1792">
         <v>0.03852435706417845</v>
@@ -14807,7 +14807,7 @@
     </row>
     <row r="1807" spans="1:2">
       <c r="A1807">
-        <v>-0.07401202063757792</v>
+        <v>-0.0740120206375779</v>
       </c>
       <c r="B1807">
         <v>0.02669274783515885</v>
@@ -14815,7 +14815,7 @@
     </row>
     <row r="1808" spans="1:2">
       <c r="A1808">
-        <v>-0.07505058274819792</v>
+        <v>-0.07505058274819791</v>
       </c>
       <c r="B1808">
         <v>0.03637943083934747</v>
@@ -14855,7 +14855,7 @@
     </row>
     <row r="1813" spans="1:2">
       <c r="A1813">
-        <v>-0.07545905411578777</v>
+        <v>-0.07545905411578775</v>
       </c>
       <c r="B1813">
         <v>0.0566525684901662</v>
@@ -14895,7 +14895,7 @@
     </row>
     <row r="1818" spans="1:2">
       <c r="A1818">
-        <v>-0.07007605626576745</v>
+        <v>-0.07007605626576743</v>
       </c>
       <c r="B1818">
         <v>0.08655038696404382</v>
@@ -14919,7 +14919,7 @@
     </row>
     <row r="1821" spans="1:2">
       <c r="A1821">
-        <v>-0.0671755715376243</v>
+        <v>-0.06717557153762428</v>
       </c>
       <c r="B1821">
         <v>0.1028618150042657</v>
@@ -14983,7 +14983,7 @@
     </row>
     <row r="1829" spans="1:2">
       <c r="A1829">
-        <v>-0.07455775577069559</v>
+        <v>-0.07455775577069561</v>
       </c>
       <c r="B1829">
         <v>0.08664049844799226</v>
@@ -15023,7 +15023,7 @@
     </row>
     <row r="1834" spans="1:2">
       <c r="A1834">
-        <v>-0.08486591659293727</v>
+        <v>-0.08486591659293725</v>
       </c>
       <c r="B1834">
         <v>0.05904626496479182</v>
@@ -15031,7 +15031,7 @@
     </row>
     <row r="1835" spans="1:2">
       <c r="A1835">
-        <v>-0.08678123464228769</v>
+        <v>-0.08678123464228771</v>
       </c>
       <c r="B1835">
         <v>0.04395794065722169</v>
@@ -15087,7 +15087,7 @@
     </row>
     <row r="1842" spans="1:2">
       <c r="A1842">
-        <v>-0.08828814965086292</v>
+        <v>-0.0882881496508629</v>
       </c>
       <c r="B1842">
         <v>0.04476709757014419</v>
@@ -15103,7 +15103,7 @@
     </row>
     <row r="1844" spans="1:2">
       <c r="A1844">
-        <v>-0.08559211710515692</v>
+        <v>-0.08559211710515693</v>
       </c>
       <c r="B1844">
         <v>0.06867458575126095</v>
@@ -15119,7 +15119,7 @@
     </row>
     <row r="1846" spans="1:2">
       <c r="A1846">
-        <v>-0.08196054568445876</v>
+        <v>-0.08196054568445875</v>
       </c>
       <c r="B1846">
         <v>0.07681481281917524</v>
@@ -15151,7 +15151,7 @@
     </row>
     <row r="1850" spans="1:2">
       <c r="A1850">
-        <v>-0.07426816481420861</v>
+        <v>-0.07426816481420863</v>
       </c>
       <c r="B1850">
         <v>0.0892080306316565</v>
@@ -15167,7 +15167,7 @@
     </row>
     <row r="1852" spans="1:2">
       <c r="A1852">
-        <v>-0.07180217724958823</v>
+        <v>-0.07180217724958825</v>
       </c>
       <c r="B1852">
         <v>0.1051685845635646</v>
@@ -15223,7 +15223,7 @@
     </row>
     <row r="1859" spans="1:2">
       <c r="A1859">
-        <v>-0.07443010540523526</v>
+        <v>-0.07443010540523524</v>
       </c>
       <c r="B1859">
         <v>0.07799481713562617</v>
@@ -15239,7 +15239,7 @@
     </row>
     <row r="1861" spans="1:2">
       <c r="A1861">
-        <v>-0.07713351622199618</v>
+        <v>-0.07713351622199617</v>
       </c>
       <c r="B1861">
         <v>0.06290827425253021</v>
@@ -15247,7 +15247,7 @@
     </row>
     <row r="1862" spans="1:2">
       <c r="A1862">
-        <v>-0.07807130429501655</v>
+        <v>-0.07807130429501656</v>
       </c>
       <c r="B1862">
         <v>0.06323131108902746</v>
@@ -15255,7 +15255,7 @@
     </row>
     <row r="1863" spans="1:2">
       <c r="A1863">
-        <v>-0.07974420148908876</v>
+        <v>-0.07974420148908877</v>
       </c>
       <c r="B1863">
         <v>0.04862445639021651</v>
@@ -15303,7 +15303,7 @@
     </row>
     <row r="1869" spans="1:2">
       <c r="A1869">
-        <v>-0.08297092056182893</v>
+        <v>-0.08297092056182895</v>
       </c>
       <c r="B1869">
         <v>0.0389196111514476</v>
@@ -15327,7 +15327,7 @@
     </row>
     <row r="1872" spans="1:2">
       <c r="A1872">
-        <v>-0.07953752273586291</v>
+        <v>-0.07953752273586293</v>
       </c>
       <c r="B1872">
         <v>0.04932408776546815</v>
@@ -15335,7 +15335,7 @@
     </row>
     <row r="1873" spans="1:2">
       <c r="A1873">
-        <v>-0.07794343992951311</v>
+        <v>-0.07794343992951309</v>
       </c>
       <c r="B1873">
         <v>0.04566759028562473</v>
@@ -15343,7 +15343,7 @@
     </row>
     <row r="1874" spans="1:2">
       <c r="A1874">
-        <v>-0.07565125846852599</v>
+        <v>-0.07565125846852598</v>
       </c>
       <c r="B1874">
         <v>0.05659206792457283</v>
@@ -15351,7 +15351,7 @@
     </row>
     <row r="1875" spans="1:2">
       <c r="A1875">
-        <v>-0.07311169973523933</v>
+        <v>-0.07311169973523932</v>
       </c>
       <c r="B1875">
         <v>0.05446095304208853</v>
@@ -15375,7 +15375,7 @@
     </row>
     <row r="1878" spans="1:2">
       <c r="A1878">
-        <v>-0.06644396311188906</v>
+        <v>-0.06644396311188905</v>
       </c>
       <c r="B1878">
         <v>0.07204202042030516</v>
@@ -15471,7 +15471,7 @@
     </row>
     <row r="1890" spans="1:2">
       <c r="A1890">
-        <v>-0.05350990098894567</v>
+        <v>-0.05350990098894568</v>
       </c>
       <c r="B1890">
         <v>0.06365754829728498</v>
@@ -15495,7 +15495,7 @@
     </row>
     <row r="1893" spans="1:2">
       <c r="A1893">
-        <v>-0.0553196894193448</v>
+        <v>-0.05531968941934481</v>
       </c>
       <c r="B1893">
         <v>0.04950510702326483</v>
@@ -15615,7 +15615,7 @@
     </row>
     <row r="1908" spans="1:2">
       <c r="A1908">
-        <v>-0.04293398355213283</v>
+        <v>-0.04293398355213284</v>
       </c>
       <c r="B1908">
         <v>0.04548916033613359</v>
@@ -15631,7 +15631,7 @@
     </row>
     <row r="1910" spans="1:2">
       <c r="A1910">
-        <v>-0.04124374779188641</v>
+        <v>-0.04124374779188642</v>
       </c>
       <c r="B1910">
         <v>0.04400693487289864</v>
@@ -15647,7 +15647,7 @@
     </row>
     <row r="1912" spans="1:2">
       <c r="A1912">
-        <v>-0.04003015329243384</v>
+        <v>-0.04003015329243383</v>
       </c>
       <c r="B1912">
         <v>0.0506895074700271</v>
@@ -15671,7 +15671,7 @@
     </row>
     <row r="1915" spans="1:2">
       <c r="A1915">
-        <v>-0.03838652554752275</v>
+        <v>-0.03838652554752274</v>
       </c>
       <c r="B1915">
         <v>0.04180565985021811</v>
@@ -15679,7 +15679,7 @@
     </row>
     <row r="1916" spans="1:2">
       <c r="A1916">
-        <v>-0.03799095872878487</v>
+        <v>-0.03799095872878486</v>
       </c>
       <c r="B1916">
         <v>0.04464471030443473</v>
@@ -15719,7 +15719,7 @@
     </row>
     <row r="1921" spans="1:2">
       <c r="A1921">
-        <v>-0.0357185462587254</v>
+        <v>-0.03571854625872539</v>
       </c>
       <c r="B1921">
         <v>0.04043399243092249</v>
@@ -15823,7 +15823,7 @@
     </row>
     <row r="1934" spans="1:2">
       <c r="A1934">
-        <v>-0.02913082565247615</v>
+        <v>-0.02913082565247614</v>
       </c>
       <c r="B1934">
         <v>0.03480637235556916</v>
@@ -15839,7 +15839,7 @@
     </row>
     <row r="1936" spans="1:2">
       <c r="A1936">
-        <v>-0.02793239010151254</v>
+        <v>-0.02793239010151255</v>
       </c>
       <c r="B1936">
         <v>0.0332316211400876</v>
@@ -15879,7 +15879,7 @@
     </row>
     <row r="1941" spans="1:2">
       <c r="A1941">
-        <v>-0.02454068615543116</v>
+        <v>-0.02454068615543115</v>
       </c>
       <c r="B1941">
         <v>0.03332102529888292</v>
@@ -16023,7 +16023,7 @@
     </row>
     <row r="1959" spans="1:2">
       <c r="A1959">
-        <v>-0.02214292152187831</v>
+        <v>-0.0221429215218783</v>
       </c>
       <c r="B1959">
         <v>0.01330936967564611</v>
@@ -16135,7 +16135,7 @@
     </row>
     <row r="1973" spans="1:2">
       <c r="A1973">
-        <v>-0.01087016724539652</v>
+        <v>-0.01087016724539653</v>
       </c>
       <c r="B1973">
         <v>0.02824546059486099</v>
@@ -16199,7 +16199,7 @@
     </row>
     <row r="1981" spans="1:2">
       <c r="A1981">
-        <v>-0.01140974090585945</v>
+        <v>-0.01140974090585944</v>
       </c>
       <c r="B1981">
         <v>0.01187758873798472</v>
@@ -16263,7 +16263,7 @@
     </row>
     <row r="1989" spans="1:2">
       <c r="A1989">
-        <v>-0.009854098541587024</v>
+        <v>-0.009854098541587026</v>
       </c>
       <c r="B1989">
         <v>0.004449440737122501</v>
@@ -16271,7 +16271,7 @@
     </row>
     <row r="1990" spans="1:2">
       <c r="A1990">
-        <v>-0.008747530029362755</v>
+        <v>-0.008747530029362753</v>
       </c>
       <c r="B1990">
         <v>0.006262288900179769</v>
@@ -16367,7 +16367,7 @@
     </row>
     <row r="2002" spans="1:2">
       <c r="A2002">
-        <v>-0.0006323739536095939</v>
+        <v>-0.0006323739536095938</v>
       </c>
       <c r="B2002">
         <v>0.007400314895495974</v>
@@ -16415,7 +16415,7 @@
     </row>
     <row r="2008" spans="1:2">
       <c r="A2008">
-        <v>-0.0007862389590479516</v>
+        <v>-0.0007862389590479517</v>
       </c>
       <c r="B2008">
         <v>-0.002392834627870322</v>
@@ -16423,7 +16423,7 @@
     </row>
     <row r="2009" spans="1:2">
       <c r="A2009">
-        <v>-0.000860234448950068</v>
+        <v>-0.0008602344489500681</v>
       </c>
       <c r="B2009">
         <v>-0.005114813875653823</v>
@@ -16543,7 +16543,7 @@
     </row>
     <row r="2024" spans="1:2">
       <c r="A2024">
-        <v>0.01120562278191527</v>
+        <v>0.01120562278191526</v>
       </c>
       <c r="B2024">
         <v>0.008640002661939761</v>
@@ -16719,7 +16719,7 @@
     </row>
     <row r="2046" spans="1:2">
       <c r="A2046">
-        <v>0.01772973078640089</v>
+        <v>0.0177297307864009</v>
       </c>
       <c r="B2046">
         <v>-0.02334960279259679</v>
@@ -16895,7 +16895,7 @@
     </row>
     <row r="2068" spans="1:2">
       <c r="A2068">
-        <v>0.03341313317946606</v>
+        <v>0.03341313317946605</v>
       </c>
       <c r="B2068">
         <v>-0.01857295759434763</v>
@@ -16959,7 +16959,7 @@
     </row>
     <row r="2076" spans="1:2">
       <c r="A2076">
-        <v>0.03768049999776998</v>
+        <v>0.03768049999776999</v>
       </c>
       <c r="B2076">
         <v>-0.02570298498098911</v>
@@ -17023,7 +17023,7 @@
     </row>
     <row r="2084" spans="1:2">
       <c r="A2084">
-        <v>0.04265527845082472</v>
+        <v>0.04265527845082471</v>
       </c>
       <c r="B2084">
         <v>-0.03025473586378968</v>
@@ -17135,7 +17135,7 @@
     </row>
     <row r="2098" spans="1:2">
       <c r="A2098">
-        <v>0.05478315024913456</v>
+        <v>0.05478315024913455</v>
       </c>
       <c r="B2098">
         <v>-0.02966687906929444</v>
@@ -17151,7 +17151,7 @@
     </row>
     <row r="2100" spans="1:2">
       <c r="A2100">
-        <v>0.05597069101253131</v>
+        <v>0.05597069101253132</v>
       </c>
       <c r="B2100">
         <v>-0.04548171756250419</v>
@@ -17223,7 +17223,7 @@
     </row>
     <row r="2109" spans="1:2">
       <c r="A2109">
-        <v>0.06415211799269774</v>
+        <v>0.06415211799269775</v>
       </c>
       <c r="B2109">
         <v>-0.04755911533570245</v>
@@ -17239,7 +17239,7 @@
     </row>
     <row r="2111" spans="1:2">
       <c r="A2111">
-        <v>0.06627648008131284</v>
+        <v>0.06627648008131286</v>
       </c>
       <c r="B2111">
         <v>-0.04454915703806295</v>
@@ -17263,7 +17263,7 @@
     </row>
     <row r="2114" spans="1:2">
       <c r="A2114">
-        <v>0.06812038573766233</v>
+        <v>0.06812038573766234</v>
       </c>
       <c r="B2114">
         <v>-0.05316933513698574</v>
@@ -17279,7 +17279,7 @@
     </row>
     <row r="2116" spans="1:2">
       <c r="A2116">
-        <v>0.06980967711508081</v>
+        <v>0.06980967711508079</v>
       </c>
       <c r="B2116">
         <v>-0.05076236519296096</v>
@@ -17287,7 +17287,7 @@
     </row>
     <row r="2117" spans="1:2">
       <c r="A2117">
-        <v>0.0707233218476155</v>
+        <v>0.07072332184761548</v>
       </c>
       <c r="B2117">
         <v>-0.05962597938712344</v>
@@ -17303,7 +17303,7 @@
     </row>
     <row r="2119" spans="1:2">
       <c r="A2119">
-        <v>0.07315981331077936</v>
+        <v>0.07315981331077935</v>
       </c>
       <c r="B2119">
         <v>-0.05571660283324853</v>
@@ -17327,7 +17327,7 @@
     </row>
     <row r="2122" spans="1:2">
       <c r="A2122">
-        <v>0.07463441624886333</v>
+        <v>0.07463441624886334</v>
       </c>
       <c r="B2122">
         <v>-0.06509999753298512</v>
@@ -17367,7 +17367,7 @@
     </row>
     <row r="2127" spans="1:2">
       <c r="A2127">
-        <v>0.07825599842344201</v>
+        <v>0.078255998423442</v>
       </c>
       <c r="B2127">
         <v>-0.07046511094443852</v>
@@ -17375,7 +17375,7 @@
     </row>
     <row r="2128" spans="1:2">
       <c r="A2128">
-        <v>0.07919984763560206</v>
+        <v>0.07919984763560205</v>
       </c>
       <c r="B2128">
         <v>-0.05580042963824061</v>
@@ -17407,7 +17407,7 @@
     </row>
     <row r="2132" spans="1:2">
       <c r="A2132">
-        <v>0.08272406959200466</v>
+        <v>0.08272406959200468</v>
       </c>
       <c r="B2132">
         <v>-0.07348642953432538</v>
@@ -17495,7 +17495,7 @@
     </row>
     <row r="2143" spans="1:2">
       <c r="A2143">
-        <v>0.09571541548294837</v>
+        <v>0.09571541548294836</v>
       </c>
       <c r="B2143">
         <v>-0.08292059655079687</v>
@@ -18119,7 +18119,7 @@
     </row>
     <row r="2221" spans="1:2">
       <c r="A2221">
-        <v>0.09645932536035506</v>
+        <v>0.09645932536035505</v>
       </c>
       <c r="B2221">
         <v>-0.1227030658866255</v>
@@ -18575,7 +18575,7 @@
     </row>
     <row r="2278" spans="1:2">
       <c r="A2278">
-        <v>0.0369752581551278</v>
+        <v>0.03697525815512779</v>
       </c>
       <c r="B2278">
         <v>-0.03314560272535338</v>
@@ -18871,7 +18871,7 @@
     </row>
     <row r="2315" spans="1:2">
       <c r="A2315">
-        <v>0.03825040821414498</v>
+        <v>0.03825040821414497</v>
       </c>
       <c r="B2315">
         <v>-0.03865618755631006</v>
@@ -18895,7 +18895,7 @@
     </row>
     <row r="2318" spans="1:2">
       <c r="A2318">
-        <v>0.04025136128763931</v>
+        <v>0.04025136128763922</v>
       </c>
       <c r="B2318">
         <v>-0.03402550084062472</v>
@@ -18919,7 +18919,7 @@
     </row>
     <row r="2321" spans="1:2">
       <c r="A2321">
-        <v>0.04203134857093951</v>
+        <v>0.04203134857093952</v>
       </c>
       <c r="B2321">
         <v>-0.03047251949817831</v>
@@ -18951,7 +18951,7 @@
     </row>
     <row r="2325" spans="1:2">
       <c r="A2325">
-        <v>0.0423664189025549</v>
+        <v>0.04236641890255485</v>
       </c>
       <c r="B2325">
         <v>-0.02054733089649829</v>
@@ -19023,7 +19023,7 @@
     </row>
     <row r="2334" spans="1:2">
       <c r="A2334">
-        <v>0.03940980043883119</v>
+        <v>0.03940980043883116</v>
       </c>
       <c r="B2334">
         <v>-0.03073269776952703</v>
@@ -19087,7 +19087,7 @@
     </row>
     <row r="2342" spans="1:2">
       <c r="A2342">
-        <v>0.04246142776075734</v>
+        <v>0.04246142776075735</v>
       </c>
       <c r="B2342">
         <v>-0.03432645133993173</v>
@@ -19103,7 +19103,7 @@
     </row>
     <row r="2344" spans="1:2">
       <c r="A2344">
-        <v>0.04289851513546555</v>
+        <v>0.04289851513546556</v>
       </c>
       <c r="B2344">
         <v>-0.02797932441968332</v>
@@ -19135,7 +19135,7 @@
     </row>
     <row r="2348" spans="1:2">
       <c r="A2348">
-        <v>0.04221437338709427</v>
+        <v>0.04221437338709428</v>
       </c>
       <c r="B2348">
         <v>-0.03571479845895764</v>
@@ -19263,7 +19263,7 @@
     </row>
     <row r="2364" spans="1:2">
       <c r="A2364">
-        <v>0.03937960450246993</v>
+        <v>0.03937960450246992</v>
       </c>
       <c r="B2364">
         <v>-0.0251815188150224</v>
@@ -19287,7 +19287,7 @@
     </row>
     <row r="2367" spans="1:2">
       <c r="A2367">
-        <v>0.04049512906290402</v>
+        <v>0.04049512906290401</v>
       </c>
       <c r="B2367">
         <v>-0.02111695733236552</v>
@@ -19343,7 +19343,7 @@
     </row>
     <row r="2374" spans="1:2">
       <c r="A2374">
-        <v>0.03842235558878479</v>
+        <v>0.03842235558878478</v>
       </c>
       <c r="B2374">
         <v>-0.03222108071486929</v>
@@ -19439,7 +19439,7 @@
     </row>
     <row r="2386" spans="1:2">
       <c r="A2386">
-        <v>0.04394380843727062</v>
+        <v>0.04394380843727063</v>
       </c>
       <c r="B2386">
         <v>-0.02017081220783457</v>
@@ -19535,7 +19535,7 @@
     </row>
     <row r="2398" spans="1:2">
       <c r="A2398">
-        <v>0.03896698300494511</v>
+        <v>0.0389669830049451</v>
       </c>
       <c r="B2398">
         <v>-0.03772001778196543</v>
@@ -19631,7 +19631,7 @@
     </row>
     <row r="2410" spans="1:2">
       <c r="A2410">
-        <v>0.04317904164468911</v>
+        <v>0.04317904164468912</v>
       </c>
       <c r="B2410">
         <v>-0.02313327278873878</v>
@@ -19815,7 +19815,7 @@
     </row>
     <row r="2433" spans="1:2">
       <c r="A2433">
-        <v>0.03301959797099982</v>
+        <v>0.03301959797100007</v>
       </c>
       <c r="B2433">
         <v>-0.03612887828242295</v>
@@ -20007,7 +20007,7 @@
     </row>
     <row r="2457" spans="1:2">
       <c r="A2457">
-        <v>0.03109385357445042</v>
+        <v>0.03109385357445041</v>
       </c>
       <c r="B2457">
         <v>-0.02352297368102008</v>
@@ -20151,7 +20151,7 @@
     </row>
     <row r="2475" spans="1:2">
       <c r="A2475">
-        <v>0.03377575486586143</v>
+        <v>0.03377575486586144</v>
       </c>
       <c r="B2475">
         <v>-0.01440347233875405</v>
@@ -20199,7 +20199,7 @@
     </row>
     <row r="2481" spans="1:2">
       <c r="A2481">
-        <v>0.033954535308937</v>
+        <v>0.03395453530893699</v>
       </c>
       <c r="B2481">
         <v>-0.0152799510631052</v>
@@ -20255,7 +20255,7 @@
     </row>
     <row r="2488" spans="1:2">
       <c r="A2488">
-        <v>0.03313541418932076</v>
+        <v>0.03313541418932075</v>
       </c>
       <c r="B2488">
         <v>-0.02180962584815305</v>
@@ -20319,7 +20319,7 @@
     </row>
     <row r="2496" spans="1:2">
       <c r="A2496">
-        <v>0.03032374153826876</v>
+        <v>0.03032374153826877</v>
       </c>
       <c r="B2496">
         <v>-0.02390940634059913</v>
@@ -20423,7 +20423,7 @@
     </row>
     <row r="2509" spans="1:2">
       <c r="A2509">
-        <v>0.02773616333275145</v>
+        <v>0.02773616333275144</v>
       </c>
       <c r="B2509">
         <v>-0.0225087483302242</v>
@@ -20471,7 +20471,7 @@
     </row>
     <row r="2515" spans="1:2">
       <c r="A2515">
-        <v>0.02705748208819218</v>
+        <v>0.02705748208819217</v>
       </c>
       <c r="B2515">
         <v>-0.01913459985199228</v>
@@ -20615,7 +20615,7 @@
     </row>
     <row r="2533" spans="1:2">
       <c r="A2533">
-        <v>0.02508584473842333</v>
+        <v>0.02508584473842332</v>
       </c>
       <c r="B2533">
         <v>-0.0165103387988057</v>
@@ -20711,7 +20711,7 @@
     </row>
     <row r="2545" spans="1:2">
       <c r="A2545">
-        <v>0.02178288624554588</v>
+        <v>0.02178288624554587</v>
       </c>
       <c r="B2545">
         <v>-0.0205562846667382</v>
@@ -20887,7 +20887,7 @@
     </row>
     <row r="2567" spans="1:2">
       <c r="A2567">
-        <v>0.0111005677059836</v>
+        <v>0.01110056770598359</v>
       </c>
       <c r="B2567">
         <v>-0.01757057884502755</v>
@@ -20943,7 +20943,7 @@
     </row>
     <row r="2574" spans="1:2">
       <c r="A2574">
-        <v>0.007608473105109586</v>
+        <v>0.007608473105109587</v>
       </c>
       <c r="B2574">
         <v>-0.01402937724911935</v>
@@ -20975,7 +20975,7 @@
     </row>
     <row r="2578" spans="1:2">
       <c r="A2578">
-        <v>0.009434541042828338</v>
+        <v>0.009434541042828339</v>
       </c>
       <c r="B2578">
         <v>-0.004937339855130674</v>
@@ -21007,7 +21007,7 @@
     </row>
     <row r="2582" spans="1:2">
       <c r="A2582">
-        <v>0.009432855507541613</v>
+        <v>0.009432855507541615</v>
       </c>
       <c r="B2582">
         <v>-0.0008232735876978481</v>
@@ -21039,7 +21039,7 @@
     </row>
     <row r="2586" spans="1:2">
       <c r="A2586">
-        <v>0.007332505831378711</v>
+        <v>0.007332505831378712</v>
       </c>
       <c r="B2586">
         <v>-0.004860180891231636</v>
@@ -21063,7 +21063,7 @@
     </row>
     <row r="2589" spans="1:2">
       <c r="A2589">
-        <v>0.004726816765821332</v>
+        <v>0.004726816765821331</v>
       </c>
       <c r="B2589">
         <v>-0.01010208400520174</v>
@@ -21095,7 +21095,7 @@
     </row>
     <row r="2593" spans="1:2">
       <c r="A2593">
-        <v>0.0009080071926956153</v>
+        <v>0.0009080071926956154</v>
       </c>
       <c r="B2593">
         <v>-0.01630499692048959</v>
@@ -21103,7 +21103,7 @@
     </row>
     <row r="2594" spans="1:2">
       <c r="A2594">
-        <v>0.0003223666122839835</v>
+        <v>0.0003223666122839834</v>
       </c>
       <c r="B2594">
         <v>-0.01689290701110879</v>
@@ -21143,7 +21143,7 @@
     </row>
     <row r="2599" spans="1:2">
       <c r="A2599">
-        <v>7.318936339334926E-05</v>
+        <v>7.318936339334925E-05</v>
       </c>
       <c r="B2599">
         <v>-0.01098816036686401</v>
@@ -21159,7 +21159,7 @@
     </row>
     <row r="2601" spans="1:2">
       <c r="A2601">
-        <v>0.0006609084428899238</v>
+        <v>0.0006609084428899237</v>
       </c>
       <c r="B2601">
         <v>-0.006834361917499088</v>
@@ -21215,7 +21215,7 @@
     </row>
     <row r="2608" spans="1:2">
       <c r="A2608">
-        <v>0.003388334451041376</v>
+        <v>0.003388334451041375</v>
       </c>
       <c r="B2608">
         <v>0.006127425245056717</v>
@@ -21383,7 +21383,7 @@
     </row>
     <row r="2629" spans="1:2">
       <c r="A2629">
-        <v>-0.008179838413275246</v>
+        <v>-0.008179838413275244</v>
       </c>
       <c r="B2629">
         <v>-0.002316987286185679</v>
@@ -21447,7 +21447,7 @@
     </row>
     <row r="2637" spans="1:2">
       <c r="A2637">
-        <v>-0.008026239312563382</v>
+        <v>-0.008026239312563384</v>
       </c>
       <c r="B2637">
         <v>0.00996216319360288</v>
@@ -21455,7 +21455,7 @@
     </row>
     <row r="2638" spans="1:2">
       <c r="A2638">
-        <v>-0.007931019638712733</v>
+        <v>-0.007931019638712731</v>
       </c>
       <c r="B2638">
         <v>0.01250044388156413</v>
@@ -21463,7 +21463,7 @@
     </row>
     <row r="2639" spans="1:2">
       <c r="A2639">
-        <v>-0.007732809325275831</v>
+        <v>-0.007732809325275832</v>
       </c>
       <c r="B2639">
         <v>0.01180817469990503</v>
@@ -21495,7 +21495,7 @@
     </row>
     <row r="2643" spans="1:2">
       <c r="A2643">
-        <v>-0.006858608088614291</v>
+        <v>-0.006858608088614292</v>
       </c>
       <c r="B2643">
         <v>0.0186292229832401</v>
@@ -21535,7 +21535,7 @@
     </row>
     <row r="2648" spans="1:2">
       <c r="A2648">
-        <v>-0.006769397559458261</v>
+        <v>-0.006769397559458262</v>
       </c>
       <c r="B2648">
         <v>0.01936851006684392</v>
@@ -21583,7 +21583,7 @@
     </row>
     <row r="2654" spans="1:2">
       <c r="A2654">
-        <v>-0.01337078061519369</v>
+        <v>-0.01337078061519368</v>
       </c>
       <c r="B2654">
         <v>0.000567705162366039</v>
@@ -21623,7 +21623,7 @@
     </row>
     <row r="2659" spans="1:2">
       <c r="A2659">
-        <v>-0.01757525832211988</v>
+        <v>-0.01757525832211987</v>
       </c>
       <c r="B2659">
         <v>-0.005301923627133664</v>
@@ -21631,7 +21631,7 @@
     </row>
     <row r="2660" spans="1:2">
       <c r="A2660">
-        <v>-0.01854481703424474</v>
+        <v>-0.01854481703424473</v>
       </c>
       <c r="B2660">
         <v>-0.003778476551663523</v>
@@ -21831,7 +21831,7 @@
     </row>
     <row r="2685" spans="1:2">
       <c r="A2685">
-        <v>-0.03415669333570348</v>
+        <v>-0.03415669333570347</v>
       </c>
       <c r="B2685">
         <v>0.01473603504541376</v>
@@ -21887,7 +21887,7 @@
     </row>
     <row r="2692" spans="1:2">
       <c r="A2692">
-        <v>-0.0355462935279863</v>
+        <v>-0.03554629352798629</v>
       </c>
       <c r="B2692">
         <v>0.02262040436302337</v>
@@ -21903,7 +21903,7 @@
     </row>
     <row r="2694" spans="1:2">
       <c r="A2694">
-        <v>-0.03648764884424959</v>
+        <v>-0.03648764884424958</v>
       </c>
       <c r="B2694">
         <v>0.02133863124019397</v>
@@ -22023,7 +22023,7 @@
     </row>
     <row r="2709" spans="1:2">
       <c r="A2709">
-        <v>-0.03985774171290964</v>
+        <v>-0.03985774171290963</v>
       </c>
       <c r="B2709">
         <v>0.02580162239275285</v>
@@ -22063,7 +22063,7 @@
     </row>
     <row r="2714" spans="1:2">
       <c r="A2714">
-        <v>-0.04498865253976204</v>
+        <v>-0.04498865253976203</v>
       </c>
       <c r="B2714">
         <v>0.01674425676654057</v>
@@ -22127,7 +22127,7 @@
     </row>
     <row r="2722" spans="1:2">
       <c r="A2722">
-        <v>-0.04795828022591465</v>
+        <v>-0.04795828022591466</v>
       </c>
       <c r="B2722">
         <v>0.02490555112236548</v>
@@ -22151,7 +22151,7 @@
     </row>
     <row r="2725" spans="1:2">
       <c r="A2725">
-        <v>-0.04667917274765189</v>
+        <v>-0.0466791727476519</v>
       </c>
       <c r="B2725">
         <v>0.03608813148286538</v>
@@ -22207,7 +22207,7 @@
     </row>
     <row r="2732" spans="1:2">
       <c r="A2732">
-        <v>-0.04420989299443724</v>
+        <v>-0.04420989299443723</v>
       </c>
       <c r="B2732">
         <v>0.04776862153765649</v>
@@ -22215,7 +22215,7 @@
     </row>
     <row r="2733" spans="1:2">
       <c r="A2733">
-        <v>-0.04432021347761837</v>
+        <v>-0.04432021347761838</v>
       </c>
       <c r="B2733">
         <v>0.05182804199002478</v>
@@ -22239,7 +22239,7 @@
     </row>
     <row r="2736" spans="1:2">
       <c r="A2736">
-        <v>-0.04477190818995173</v>
+        <v>-0.04477190818995174</v>
       </c>
       <c r="B2736">
         <v>0.05209290076304685</v>
@@ -22343,7 +22343,7 @@
     </row>
     <row r="2749" spans="1:2">
       <c r="A2749">
-        <v>-0.04538080398358825</v>
+        <v>-0.04538080398358826</v>
       </c>
       <c r="B2749">
         <v>0.04000471206097345</v>
@@ -22367,7 +22367,7 @@
     </row>
     <row r="2752" spans="1:2">
       <c r="A2752">
-        <v>-0.04515379675718087</v>
+        <v>-0.04515379675718088</v>
       </c>
       <c r="B2752">
         <v>0.03169784748891757</v>
@@ -22399,7 +22399,7 @@
     </row>
     <row r="2756" spans="1:2">
       <c r="A2756">
-        <v>-0.04354501387167423</v>
+        <v>-0.04354501387167422</v>
       </c>
       <c r="B2756">
         <v>0.03557505648594494</v>
@@ -22703,7 +22703,7 @@
     </row>
     <row r="2794" spans="1:2">
       <c r="A2794">
-        <v>-0.009094825027603858</v>
+        <v>-0.009094825027603859</v>
       </c>
       <c r="B2794">
         <v>0.02501875213666116</v>
@@ -22743,7 +22743,7 @@
     </row>
     <row r="2799" spans="1:2">
       <c r="A2799">
-        <v>-0.007352685537161476</v>
+        <v>-0.007352685537161477</v>
       </c>
       <c r="B2799">
         <v>0.01649520742357602</v>
@@ -22751,7 +22751,7 @@
     </row>
     <row r="2800" spans="1:2">
       <c r="A2800">
-        <v>-0.007319808649228304</v>
+        <v>-0.007319808649228303</v>
       </c>
       <c r="B2800">
         <v>0.01367598799712511</v>
@@ -22767,7 +22767,7 @@
     </row>
     <row r="2802" spans="1:2">
       <c r="A2802">
-        <v>-0.007679952881748855</v>
+        <v>-0.007679952881748856</v>
       </c>
       <c r="B2802">
         <v>0.00827082136747892</v>
@@ -22791,7 +22791,7 @@
     </row>
     <row r="2805" spans="1:2">
       <c r="A2805">
-        <v>-0.008223118257082027</v>
+        <v>-0.008223118257082026</v>
       </c>
       <c r="B2805">
         <v>0.001480304330222726</v>
@@ -22855,7 +22855,7 @@
     </row>
     <row r="2813" spans="1:2">
       <c r="A2813">
-        <v>-0.0007531023939490488</v>
+        <v>-0.0007531023939490487</v>
       </c>
       <c r="B2813">
         <v>0.009620394511398622</v>
@@ -22863,7 +22863,7 @@
     </row>
     <row r="2814" spans="1:2">
       <c r="A2814">
-        <v>0.0007027750289446467</v>
+        <v>0.0007027750289446466</v>
       </c>
       <c r="B2814">
         <v>0.01154349099038754</v>
@@ -22887,7 +22887,7 @@
     </row>
     <row r="2817" spans="1:2">
       <c r="A2817">
-        <v>0.00367828057759427</v>
+        <v>0.003678280577594271</v>
       </c>
       <c r="B2817">
         <v>0.01519949776943497</v>
@@ -22911,7 +22911,7 @@
     </row>
     <row r="2820" spans="1:2">
       <c r="A2820">
-        <v>0.00567785333409577</v>
+        <v>0.005677853334095769</v>
       </c>
       <c r="B2820">
         <v>0.01414788641937115</v>
@@ -22919,7 +22919,7 @@
     </row>
     <row r="2821" spans="1:2">
       <c r="A2821">
-        <v>0.006083761437313113</v>
+        <v>0.006083761437313114</v>
       </c>
       <c r="B2821">
         <v>0.01229782145388247</v>
@@ -22935,7 +22935,7 @@
     </row>
     <row r="2823" spans="1:2">
       <c r="A2823">
-        <v>0.006932890527812716</v>
+        <v>0.006932890527812715</v>
       </c>
       <c r="B2823">
         <v>0.01035599639927209</v>
@@ -22975,7 +22975,7 @@
     </row>
     <row r="2828" spans="1:2">
       <c r="A2828">
-        <v>0.008609907949320445</v>
+        <v>0.008609907949320443</v>
       </c>
       <c r="B2828">
         <v>0.003006028418946816</v>
@@ -23127,7 +23127,7 @@
     </row>
     <row r="2847" spans="1:2">
       <c r="A2847">
-        <v>0.01212157769567533</v>
+        <v>0.01212157769567534</v>
       </c>
       <c r="B2847">
         <v>-0.01603108579015755</v>
@@ -23175,7 +23175,7 @@
     </row>
     <row r="2853" spans="1:2">
       <c r="A2853">
-        <v>0.01412284119231967</v>
+        <v>0.01412284119231968</v>
       </c>
       <c r="B2853">
         <v>-0.0177078924781795</v>
@@ -23263,7 +23263,7 @@
     </row>
     <row r="2864" spans="1:2">
       <c r="A2864">
-        <v>0.02408932960191278</v>
+        <v>0.02408932960191279</v>
       </c>
       <c r="B2864">
         <v>-0.009536241531447498</v>
@@ -23407,7 +23407,7 @@
     </row>
     <row r="2882" spans="1:2">
       <c r="A2882">
-        <v>0.03504739095213152</v>
+        <v>0.03504739095213153</v>
       </c>
       <c r="B2882">
         <v>-0.0193595433764564</v>
@@ -23447,7 +23447,7 @@
     </row>
     <row r="2887" spans="1:2">
       <c r="A2887">
-        <v>0.0386822773382004</v>
+        <v>0.03868227733820039</v>
       </c>
       <c r="B2887">
         <v>-0.02270101009719738</v>
@@ -23503,7 +23503,7 @@
     </row>
     <row r="2894" spans="1:2">
       <c r="A2894">
-        <v>0.04728447596859517</v>
+        <v>0.04728447596859518</v>
       </c>
       <c r="B2894">
         <v>-0.02893525027823385</v>
@@ -23543,7 +23543,7 @@
     </row>
     <row r="2899" spans="1:2">
       <c r="A2899">
-        <v>0.05151702535373346</v>
+        <v>0.05151702535373347</v>
       </c>
       <c r="B2899">
         <v>-0.03331442978954247</v>
@@ -23591,7 +23591,7 @@
     </row>
     <row r="2905" spans="1:2">
       <c r="A2905">
-        <v>0.05401893219088111</v>
+        <v>0.05401893219088112</v>
       </c>
       <c r="B2905">
         <v>-0.03685694743030998</v>
@@ -23679,7 +23679,7 @@
     </row>
     <row r="2916" spans="1:2">
       <c r="A2916">
-        <v>0.06341178350549195</v>
+        <v>0.06341178350549194</v>
       </c>
       <c r="B2916">
         <v>-0.04558404162629559</v>
@@ -23711,7 +23711,7 @@
     </row>
     <row r="2920" spans="1:2">
       <c r="A2920">
-        <v>0.06596546605657953</v>
+        <v>0.06596546605657952</v>
       </c>
       <c r="B2920">
         <v>-0.04171733514269205</v>
@@ -23767,7 +23767,7 @@
     </row>
     <row r="2927" spans="1:2">
       <c r="A2927">
-        <v>0.06575605282084378</v>
+        <v>0.06575605282084379</v>
       </c>
       <c r="B2927">
         <v>-0.05145073842275405</v>
@@ -23791,7 +23791,7 @@
     </row>
     <row r="2930" spans="1:2">
       <c r="A2930">
-        <v>0.06923359001134081</v>
+        <v>0.06923359001134083</v>
       </c>
       <c r="B2930">
         <v>-0.05158531708226421</v>
@@ -23847,7 +23847,7 @@
     </row>
     <row r="2937" spans="1:2">
       <c r="A2937">
-        <v>0.07831134142055692</v>
+        <v>0.07831134142055693</v>
       </c>
       <c r="B2937">
         <v>-0.03673970608471855</v>
@@ -23863,7 +23863,7 @@
     </row>
     <row r="2939" spans="1:2">
       <c r="A2939">
-        <v>0.08043236965582388</v>
+        <v>0.0804323696558239</v>
       </c>
       <c r="B2939">
         <v>-0.05261226846303879</v>
@@ -23871,7 +23871,7 @@
     </row>
     <row r="2940" spans="1:2">
       <c r="A2940">
-        <v>0.08103049974079918</v>
+        <v>0.08103049974079916</v>
       </c>
       <c r="B2940">
         <v>-0.04175015964538575</v>
@@ -23903,7 +23903,7 @@
     </row>
     <row r="2944" spans="1:2">
       <c r="A2944">
-        <v>0.08234381232754875</v>
+        <v>0.08234381232754877</v>
       </c>
       <c r="B2944">
         <v>-0.06134429374753747</v>
@@ -23919,7 +23919,7 @@
     </row>
     <row r="2946" spans="1:2">
       <c r="A2946">
-        <v>0.08402213563303221</v>
+        <v>0.08402213563303219</v>
       </c>
       <c r="B2946">
         <v>-0.05898906388356151</v>
@@ -23967,7 +23967,7 @@
     </row>
     <row r="2952" spans="1:2">
       <c r="A2952">
-        <v>0.08426669961292893</v>
+        <v>0.08426669961292894</v>
       </c>
       <c r="B2952">
         <v>-0.08158052361620305</v>
@@ -23991,7 +23991,7 @@
     </row>
     <row r="2955" spans="1:2">
       <c r="A2955">
-        <v>0.08606023510584877</v>
+        <v>0.08606023510584879</v>
       </c>
       <c r="B2955">
         <v>-0.06693698721889385</v>
@@ -24063,7 +24063,7 @@
     </row>
     <row r="2964" spans="1:2">
       <c r="A2964">
-        <v>0.08338565088564545</v>
+        <v>0.08338565088564547</v>
       </c>
       <c r="B2964">
         <v>-0.09968962809801818</v>
@@ -24087,7 +24087,7 @@
     </row>
     <row r="2967" spans="1:2">
       <c r="A2967">
-        <v>0.08333297492460642</v>
+        <v>0.08333297492460644</v>
       </c>
       <c r="B2967">
         <v>-0.103421203497204</v>
@@ -24175,7 +24175,7 @@
     </row>
     <row r="2978" spans="1:2">
       <c r="A2978">
-        <v>0.08717925892770768</v>
+        <v>0.0871792589277077</v>
       </c>
       <c r="B2978">
         <v>-0.07368719439982119</v>
@@ -24183,7 +24183,7 @@
     </row>
     <row r="2979" spans="1:2">
       <c r="A2979">
-        <v>0.08657856397118194</v>
+        <v>0.08657856397118192</v>
       </c>
       <c r="B2979">
         <v>-0.08265462591022255</v>
@@ -24191,7 +24191,7 @@
     </row>
     <row r="2980" spans="1:2">
       <c r="A2980">
-        <v>0.08518261124013216</v>
+        <v>0.08518261124013217</v>
       </c>
       <c r="B2980">
         <v>-0.09197461052654754</v>
@@ -24279,7 +24279,7 @@
     </row>
     <row r="2991" spans="1:2">
       <c r="A2991">
-        <v>0.08160367848951766</v>
+        <v>0.08160367848951768</v>
       </c>
       <c r="B2991">
         <v>-0.07090579560728028</v>
@@ -24327,7 +24327,7 @@
     </row>
     <row r="2997" spans="1:2">
       <c r="A2997">
-        <v>0.08348269771651849</v>
+        <v>0.08348269771651851</v>
       </c>
       <c r="B2997">
         <v>-0.06384951787919935</v>
@@ -24335,7 +24335,7 @@
     </row>
     <row r="2998" spans="1:2">
       <c r="A2998">
-        <v>0.08297747288238867</v>
+        <v>0.08297747288238869</v>
       </c>
       <c r="B2998">
         <v>-0.07048780521416287</v>
@@ -24367,7 +24367,7 @@
     </row>
     <row r="3002" spans="1:2">
       <c r="A3002">
-        <v>0.08094182381802177</v>
+        <v>0.08094182381802176</v>
       </c>
       <c r="B3002">
         <v>-0.06358690766615815</v>
@@ -24375,7 +24375,7 @@
     </row>
     <row r="3003" spans="1:2">
       <c r="A3003">
-        <v>0.07934512547807837</v>
+        <v>0.07934512547807838</v>
       </c>
       <c r="B3003">
         <v>-0.07331969619953105</v>
@@ -24535,7 +24535,7 @@
     </row>
     <row r="3023" spans="1:2">
       <c r="A3023">
-        <v>0.06923758341156483</v>
+        <v>0.06923758341156484</v>
       </c>
       <c r="B3023">
         <v>-0.04391085778652704</v>
@@ -24591,7 +24591,7 @@
     </row>
     <row r="3030" spans="1:2">
       <c r="A3030">
-        <v>0.06857740209593377</v>
+        <v>0.06857740209593378</v>
       </c>
       <c r="B3030">
         <v>-0.05399161780797757</v>
@@ -24727,7 +24727,7 @@
     </row>
     <row r="3047" spans="1:2">
       <c r="A3047">
-        <v>0.07206584148745163</v>
+        <v>0.07206584148745164</v>
       </c>
       <c r="B3047">
         <v>-0.07873655571078508</v>
@@ -24735,7 +24735,7 @@
     </row>
     <row r="3048" spans="1:2">
       <c r="A3048">
-        <v>0.07324452973413445</v>
+        <v>0.07324452973413446</v>
       </c>
       <c r="B3048">
         <v>-0.05922093063660228</v>
@@ -24743,7 +24743,7 @@
     </row>
     <row r="3049" spans="1:2">
       <c r="A3049">
-        <v>0.07370325853851034</v>
+        <v>0.07370325853851033</v>
       </c>
       <c r="B3049">
         <v>-0.07162290862280285</v>
@@ -24807,7 +24807,7 @@
     </row>
     <row r="3057" spans="1:2">
       <c r="A3057">
-        <v>0.08054003270442311</v>
+        <v>0.0805400327044231</v>
       </c>
       <c r="B3057">
         <v>-0.06665706382611836</v>
@@ -24815,7 +24815,7 @@
     </row>
     <row r="3058" spans="1:2">
       <c r="A3058">
-        <v>0.08090082318608774</v>
+        <v>0.08090082318608775</v>
       </c>
       <c r="B3058">
         <v>-0.07959709715647234</v>
@@ -24903,7 +24903,7 @@
     </row>
     <row r="3069" spans="1:2">
       <c r="A3069">
-        <v>0.09360557565260574</v>
+        <v>0.09360557565260576</v>
       </c>
       <c r="B3069">
         <v>-0.07073316697033682</v>
@@ -24927,7 +24927,7 @@
     </row>
     <row r="3072" spans="1:2">
       <c r="A3072">
-        <v>0.09655224960712319</v>
+        <v>0.09655224960712318</v>
       </c>
       <c r="B3072">
         <v>-0.07345148361610931</v>
@@ -25575,7 +25575,7 @@
     </row>
     <row r="3153" spans="1:2">
       <c r="A3153">
-        <v>0.05005629454386513</v>
+        <v>0.05005629454386514</v>
       </c>
       <c r="B3153">
         <v>-0.06257003318404131</v>
@@ -25607,7 +25607,7 @@
     </row>
     <row r="3157" spans="1:2">
       <c r="A3157">
-        <v>0.04424971113643426</v>
+        <v>0.04424971113643427</v>
       </c>
       <c r="B3157">
         <v>-0.05600759006736311</v>
@@ -25991,7 +25991,7 @@
     </row>
     <row r="3205" spans="1:2">
       <c r="A3205">
-        <v>-0.009889000132687779</v>
+        <v>-0.009889000132687778</v>
       </c>
       <c r="B3205">
         <v>-0.02154972039214087</v>
@@ -26679,7 +26679,7 @@
     </row>
     <row r="3291" spans="1:2">
       <c r="A3291">
-        <v>-0.09204357208013225</v>
+        <v>-0.09204357208013224</v>
       </c>
       <c r="B3291">
         <v>0.08605361341577344</v>
@@ -26703,7 +26703,7 @@
     </row>
     <row r="3294" spans="1:2">
       <c r="A3294">
-        <v>-0.09293631091228696</v>
+        <v>-0.09293631091228698</v>
       </c>
       <c r="B3294">
         <v>0.08160352848921448</v>
@@ -26735,7 +26735,7 @@
     </row>
     <row r="3298" spans="1:2">
       <c r="A3298">
-        <v>-0.09260134830263642</v>
+        <v>-0.0926013483026364</v>
       </c>
       <c r="B3298">
         <v>0.0922416462662774</v>
@@ -26767,7 +26767,7 @@
     </row>
     <row r="3302" spans="1:2">
       <c r="A3302">
-        <v>-0.09167894894648859</v>
+        <v>-0.09167894894648858</v>
       </c>
       <c r="B3302">
         <v>0.09800024747968017</v>
@@ -26799,7 +26799,7 @@
     </row>
     <row r="3306" spans="1:2">
       <c r="A3306">
-        <v>-0.08786187287327371</v>
+        <v>-0.0878618728732737</v>
       </c>
       <c r="B3306">
         <v>0.1049418409428462</v>
@@ -26815,7 +26815,7 @@
     </row>
     <row r="3308" spans="1:2">
       <c r="A3308">
-        <v>-0.08509604490085523</v>
+        <v>-0.08509604490085525</v>
       </c>
       <c r="B3308">
         <v>0.09185859686796727</v>
@@ -26831,7 +26831,7 @@
     </row>
     <row r="3310" spans="1:2">
       <c r="A3310">
-        <v>-0.0808239353335478</v>
+        <v>-0.08082393533354375</v>
       </c>
       <c r="B3310">
         <v>0.1136806216671027</v>
@@ -26855,7 +26855,7 @@
     </row>
     <row r="3313" spans="1:2">
       <c r="A3313">
-        <v>-0.07624204225350956</v>
+        <v>-0.07624204225350957</v>
       </c>
       <c r="B3313">
         <v>0.1083770212905111</v>
@@ -26863,7 +26863,7 @@
     </row>
     <row r="3314" spans="1:2">
       <c r="A3314">
-        <v>-0.07454632997986113</v>
+        <v>-0.07454632997986115</v>
       </c>
       <c r="B3314">
         <v>0.08680235949870063</v>
@@ -26911,7 +26911,7 @@
     </row>
     <row r="3320" spans="1:2">
       <c r="A3320">
-        <v>-0.06572453961003591</v>
+        <v>-0.06572453961003592</v>
       </c>
       <c r="B3320">
         <v>0.09625188983179012</v>
@@ -26943,7 +26943,7 @@
     </row>
     <row r="3324" spans="1:2">
       <c r="A3324">
-        <v>-0.06125546998039842</v>
+        <v>-0.06125546998039843</v>
       </c>
       <c r="B3324">
         <v>0.08561651427950423</v>
@@ -26967,7 +26967,7 @@
     </row>
     <row r="3327" spans="1:2">
       <c r="A3327">
-        <v>-0.05631321833891552</v>
+        <v>-0.05631321833891551</v>
       </c>
       <c r="B3327">
         <v>0.07720902652240103</v>
@@ -26999,7 +26999,7 @@
     </row>
     <row r="3331" spans="1:2">
       <c r="A3331">
-        <v>-0.04746528393416238</v>
+        <v>-0.04746528393416237</v>
       </c>
       <c r="B3331">
         <v>0.07654742681425075</v>
@@ -27095,7 +27095,7 @@
     </row>
     <row r="3343" spans="1:2">
       <c r="A3343">
-        <v>-0.02295166511379809</v>
+        <v>-0.0229516651137981</v>
       </c>
       <c r="B3343">
         <v>0.05859072248116481</v>
@@ -27239,7 +27239,7 @@
     </row>
     <row r="3361" spans="1:2">
       <c r="A3361">
-        <v>5.488554621894112E-05</v>
+        <v>5.488554621894111E-05</v>
       </c>
       <c r="B3361">
         <v>0.02073874664505349</v>
@@ -27407,7 +27407,7 @@
     </row>
     <row r="3382" spans="1:2">
       <c r="A3382">
-        <v>0.03461700483787111</v>
+        <v>0.03461700483787112</v>
       </c>
       <c r="B3382">
         <v>0.01331569397493482</v>
@@ -27415,7 +27415,7 @@
     </row>
     <row r="3383" spans="1:2">
       <c r="A3383">
-        <v>0.03558027836992769</v>
+        <v>0.0355802783699277</v>
       </c>
       <c r="B3383">
         <v>0.001927488689537959</v>
@@ -27423,7 +27423,7 @@
     </row>
     <row r="3384" spans="1:2">
       <c r="A3384">
-        <v>0.0370905457744552</v>
+        <v>0.03709054577445519</v>
       </c>
       <c r="B3384">
         <v>0.02202264276595045</v>
@@ -27463,7 +27463,7 @@
     </row>
     <row r="3389" spans="1:2">
       <c r="A3389">
-        <v>0.04280311992964994</v>
+        <v>0.04280311992964995</v>
       </c>
       <c r="B3389">
         <v>-0.007484886506957888</v>
@@ -27519,7 +27519,7 @@
     </row>
     <row r="3396" spans="1:2">
       <c r="A3396">
-        <v>0.04721690798111254</v>
+        <v>0.04721690798111255</v>
       </c>
       <c r="B3396">
         <v>-0.03231246856507752</v>
@@ -27551,7 +27551,7 @@
     </row>
     <row r="3400" spans="1:2">
       <c r="A3400">
-        <v>0.04846077614927174</v>
+        <v>0.04846077614927175</v>
       </c>
       <c r="B3400">
         <v>-0.04793940687581788</v>
@@ -27575,7 +27575,7 @@
     </row>
     <row r="3403" spans="1:2">
       <c r="A3403">
-        <v>0.05062080484003616</v>
+        <v>0.05062080484003615</v>
       </c>
       <c r="B3403">
         <v>-0.04777283200279747</v>
@@ -27631,7 +27631,7 @@
     </row>
     <row r="3410" spans="1:2">
       <c r="A3410">
-        <v>0.05622090627208116</v>
+        <v>0.05622090627208117</v>
       </c>
       <c r="B3410">
         <v>-0.04770157022384236</v>
@@ -27759,7 +27759,7 @@
     </row>
     <row r="3426" spans="1:2">
       <c r="A3426">
-        <v>0.05542724363545151</v>
+        <v>0.0554272436354515</v>
       </c>
       <c r="B3426">
         <v>-0.05096464729849703</v>
@@ -27799,7 +27799,7 @@
     </row>
     <row r="3431" spans="1:2">
       <c r="A3431">
-        <v>0.05187208929013072</v>
+        <v>0.05187208929013071</v>
       </c>
       <c r="B3431">
         <v>-0.0435411748264487</v>
@@ -28135,7 +28135,7 @@
     </row>
     <row r="3473" spans="1:2">
       <c r="A3473">
-        <v>0.03383196757459307</v>
+        <v>0.03383196757459309</v>
       </c>
       <c r="B3473">
         <v>-0.03535784802047814</v>
@@ -28191,7 +28191,7 @@
     </row>
     <row r="3480" spans="1:2">
       <c r="A3480">
-        <v>0.02654529451390446</v>
+        <v>0.02654529451390447</v>
       </c>
       <c r="B3480">
         <v>-0.047906671762318</v>
@@ -28991,7 +28991,7 @@
     </row>
     <row r="3580" spans="1:2">
       <c r="A3580">
-        <v>0.02185758048088413</v>
+        <v>0.02185758048088412</v>
       </c>
       <c r="B3580">
         <v>-0.01420135520523935</v>
@@ -29047,7 +29047,7 @@
     </row>
     <row r="3587" spans="1:2">
       <c r="A3587">
-        <v>0.02272848596512649</v>
+        <v>0.02272848596512674</v>
       </c>
       <c r="B3587">
         <v>-0.008702038906980292</v>
@@ -29167,7 +29167,7 @@
     </row>
     <row r="3602" spans="1:2">
       <c r="A3602">
-        <v>0.02148674463714172</v>
+        <v>0.02148674463714171</v>
       </c>
       <c r="B3602">
         <v>-0.01336115957767259</v>
@@ -29263,7 +29263,7 @@
     </row>
     <row r="3614" spans="1:2">
       <c r="A3614">
-        <v>0.01888588687839757</v>
+        <v>0.01888588687839756</v>
       </c>
       <c r="B3614">
         <v>-0.01244190285069458</v>
@@ -29367,7 +29367,7 @@
     </row>
     <row r="3627" spans="1:2">
       <c r="A3627">
-        <v>0.02262570857319095</v>
+        <v>0.02262570857319096</v>
       </c>
       <c r="B3627">
         <v>-0.008273792476346742</v>
@@ -29479,7 +29479,7 @@
     </row>
     <row r="3641" spans="1:2">
       <c r="A3641">
-        <v>0.03068983936712801</v>
+        <v>0.03068983936712802</v>
       </c>
       <c r="B3641">
         <v>-0.01814764886694142</v>
@@ -29703,7 +29703,7 @@
     </row>
     <row r="3669" spans="1:2">
       <c r="A3669">
-        <v>0.04945431528601696</v>
+        <v>0.04945431528601695</v>
       </c>
       <c r="B3669">
         <v>-0.03366087355337033</v>
@@ -29759,7 +29759,7 @@
     </row>
     <row r="3676" spans="1:2">
       <c r="A3676">
-        <v>0.05470421733108498</v>
+        <v>0.05470421733108499</v>
       </c>
       <c r="B3676">
         <v>-0.0506825175638923</v>
@@ -29823,7 +29823,7 @@
     </row>
     <row r="3684" spans="1:2">
       <c r="A3684">
-        <v>0.06624380090363272</v>
+        <v>0.06624380090363273</v>
       </c>
       <c r="B3684">
         <v>-0.04266582188624923</v>
@@ -29847,7 +29847,7 @@
     </row>
     <row r="3687" spans="1:2">
       <c r="A3687">
-        <v>0.07061521626122172</v>
+        <v>0.07061521626122173</v>
       </c>
       <c r="B3687">
         <v>-0.04435304399899032</v>
@@ -29879,7 +29879,7 @@
     </row>
     <row r="3691" spans="1:2">
       <c r="A3691">
-        <v>0.07556379996672713</v>
+        <v>0.07556379996672712</v>
       </c>
       <c r="B3691">
         <v>-0.03117247232945353</v>
@@ -29887,7 +29887,7 @@
     </row>
     <row r="3692" spans="1:2">
       <c r="A3692">
-        <v>0.07637188076634058</v>
+        <v>0.07637188076634056</v>
       </c>
       <c r="B3692">
         <v>-0.0443146008194315</v>
@@ -29911,7 +29911,7 @@
     </row>
     <row r="3695" spans="1:2">
       <c r="A3695">
-        <v>0.07671860509273667</v>
+        <v>0.07671860509273669</v>
       </c>
       <c r="B3695">
         <v>-0.05742631585948565</v>
@@ -29991,7 +29991,7 @@
     </row>
     <row r="3705" spans="1:2">
       <c r="A3705">
-        <v>0.08608840932011785</v>
+        <v>0.08608840932011787</v>
       </c>
       <c r="B3705">
         <v>-0.05158190763601134</v>
@@ -30063,7 +30063,7 @@
     </row>
     <row r="3714" spans="1:2">
       <c r="A3714">
-        <v>0.09368475416530928</v>
+        <v>0.09368475416530929</v>
       </c>
       <c r="B3714">
         <v>-0.06411398642625166</v>
@@ -30071,7 +30071,7 @@
     </row>
     <row r="3715" spans="1:2">
       <c r="A3715">
-        <v>0.09396422852132963</v>
+        <v>0.09396422852132962</v>
       </c>
       <c r="B3715">
         <v>-0.07922984445224834</v>
@@ -30079,7 +30079,7 @@
     </row>
     <row r="3716" spans="1:2">
       <c r="A3716">
-        <v>0.09356993418604792</v>
+        <v>0.09356993418604791</v>
       </c>
       <c r="B3716">
         <v>-0.09376058693254663</v>
@@ -30095,7 +30095,7 @@
     </row>
     <row r="3718" spans="1:2">
       <c r="A3718">
-        <v>0.09596654001271859</v>
+        <v>0.09596654001271861</v>
       </c>
       <c r="B3718">
         <v>-0.08321122000869074</v>
@@ -30103,7 +30103,7 @@
     </row>
     <row r="3719" spans="1:2">
       <c r="A3719">
-        <v>0.0958985046073773</v>
+        <v>0.09589850460737731</v>
       </c>
       <c r="B3719">
         <v>-0.09673253265250281</v>
@@ -30119,7 +30119,7 @@
     </row>
     <row r="3721" spans="1:2">
       <c r="A3721">
-        <v>0.09805883977004642</v>
+        <v>0.09805883977004644</v>
       </c>
       <c r="B3721">
         <v>-0.08622669001053751</v>
@@ -30223,7 +30223,7 @@
     </row>
     <row r="3734" spans="1:2">
       <c r="A3734">
-        <v>0.106514450884606</v>
+        <v>0.1065144508846059</v>
       </c>
       <c r="B3734">
         <v>-0.0709598320731839</v>
@@ -30367,7 +30367,7 @@
     </row>
     <row r="3752" spans="1:2">
       <c r="A3752">
-        <v>0.09387437702236291</v>
+        <v>0.09387437702236293</v>
       </c>
       <c r="B3752">
         <v>-0.1008417048422801</v>
@@ -30391,7 +30391,7 @@
     </row>
     <row r="3755" spans="1:2">
       <c r="A3755">
-        <v>0.09302811033158065</v>
+        <v>0.09302811033158066</v>
       </c>
       <c r="B3755">
         <v>-0.09306695603826265</v>
@@ -30399,7 +30399,7 @@
     </row>
     <row r="3756" spans="1:2">
       <c r="A3756">
-        <v>0.09302891043949561</v>
+        <v>0.09302891043949563</v>
       </c>
       <c r="B3756">
         <v>-0.1012274777961135</v>
@@ -30407,7 +30407,7 @@
     </row>
     <row r="3757" spans="1:2">
       <c r="A3757">
-        <v>0.09241502843750445</v>
+        <v>0.09241502843750443</v>
       </c>
       <c r="B3757">
         <v>-0.1090291284777591</v>
@@ -30487,7 +30487,7 @@
     </row>
     <row r="3767" spans="1:2">
       <c r="A3767">
-        <v>0.07788940920792436</v>
+        <v>0.07788940920792438</v>
       </c>
       <c r="B3767">
         <v>-0.1092259210037119</v>
@@ -30495,7 +30495,7 @@
     </row>
     <row r="3768" spans="1:2">
       <c r="A3768">
-        <v>0.07755730671573502</v>
+        <v>0.07755730671573501</v>
       </c>
       <c r="B3768">
         <v>-0.08782179634852127</v>
@@ -30511,7 +30511,7 @@
     </row>
     <row r="3770" spans="1:2">
       <c r="A3770">
-        <v>0.07597069018899877</v>
+        <v>0.07597069018899875</v>
       </c>
       <c r="B3770">
         <v>-0.09962489517747564</v>
@@ -30551,7 +30551,7 @@
     </row>
     <row r="3775" spans="1:2">
       <c r="A3775">
-        <v>0.0745774196691078</v>
+        <v>0.07457741966910782</v>
       </c>
       <c r="B3775">
         <v>-0.07282001685306483</v>
@@ -30567,7 +30567,7 @@
     </row>
     <row r="3777" spans="1:2">
       <c r="A3777">
-        <v>0.07342826654699526</v>
+        <v>0.07342826654699525</v>
       </c>
       <c r="B3777">
         <v>-0.05859989330108961</v>
@@ -30599,7 +30599,7 @@
     </row>
     <row r="3781" spans="1:2">
       <c r="A3781">
-        <v>0.06978456553964021</v>
+        <v>0.0697845655396402</v>
       </c>
       <c r="B3781">
         <v>-0.06259050900331919</v>
@@ -30607,7 +30607,7 @@
     </row>
     <row r="3782" spans="1:2">
       <c r="A3782">
-        <v>0.06784959576420749</v>
+        <v>0.0678495957642075</v>
       </c>
       <c r="B3782">
         <v>-0.0717510799481289</v>
@@ -30647,7 +30647,7 @@
     </row>
     <row r="3787" spans="1:2">
       <c r="A3787">
-        <v>0.05959352487652746</v>
+        <v>0.05959352487652747</v>
       </c>
       <c r="B3787">
         <v>-0.06813067354550384</v>
@@ -30655,7 +30655,7 @@
     </row>
     <row r="3788" spans="1:2">
       <c r="A3788">
-        <v>0.05713997655811091</v>
+        <v>0.0571399765581109</v>
       </c>
       <c r="B3788">
         <v>-0.07831904844137227</v>
@@ -30703,7 +30703,7 @@
     </row>
     <row r="3794" spans="1:2">
       <c r="A3794">
-        <v>0.04679894879219134</v>
+        <v>0.04679894879219135</v>
       </c>
       <c r="B3794">
         <v>-0.07985436974191407</v>
@@ -30735,7 +30735,7 @@
     </row>
     <row r="3798" spans="1:2">
       <c r="A3798">
-        <v>0.0439761775483953</v>
+        <v>0.04397617754839529</v>
       </c>
       <c r="B3798">
         <v>-0.0752923976128117</v>
@@ -30855,7 +30855,7 @@
     </row>
     <row r="3813" spans="1:2">
       <c r="A3813">
-        <v>0.04340191392886852</v>
+        <v>0.04340191392886853</v>
       </c>
       <c r="B3813">
         <v>-0.03480670130459318</v>
@@ -30967,7 +30967,7 @@
     </row>
     <row r="3827" spans="1:2">
       <c r="A3827">
-        <v>0.036480328266943</v>
+        <v>0.03648032826694299</v>
       </c>
       <c r="B3827">
         <v>-0.04063039584961947</v>
@@ -31207,7 +31207,7 @@
     </row>
     <row r="3857" spans="1:2">
       <c r="A3857">
-        <v>0.03126839642007033</v>
+        <v>0.03126839642007032</v>
       </c>
       <c r="B3857">
         <v>-0.02148284177655402</v>
@@ -31415,7 +31415,7 @@
     </row>
     <row r="3883" spans="1:2">
       <c r="A3883">
-        <v>0.0210286492305596</v>
+        <v>0.02102864923055961</v>
       </c>
       <c r="B3883">
         <v>-0.02530441992662835</v>
@@ -31663,7 +31663,7 @@
     </row>
     <row r="3914" spans="1:2">
       <c r="A3914">
-        <v>0.009293392978468335</v>
+        <v>0.009293392978468333</v>
       </c>
       <c r="B3914">
         <v>-0.00767256479681766</v>
@@ -31751,7 +31751,7 @@
     </row>
     <row r="3925" spans="1:2">
       <c r="A3925">
-        <v>0.00490469029293618</v>
+        <v>0.004904690292936179</v>
       </c>
       <c r="B3925">
         <v>-0.009302707835122881</v>
@@ -31799,7 +31799,7 @@
     </row>
     <row r="3931" spans="1:2">
       <c r="A3931">
-        <v>0.006721461021146366</v>
+        <v>0.006721461021146365</v>
       </c>
       <c r="B3931">
         <v>0.0002335205535595186</v>
@@ -31815,7 +31815,7 @@
     </row>
     <row r="3933" spans="1:2">
       <c r="A3933">
-        <v>0.005973770577432699</v>
+        <v>0.005973770577431429</v>
       </c>
       <c r="B3933">
         <v>0.0006169068465471383</v>
@@ -31839,7 +31839,7 @@
     </row>
     <row r="3936" spans="1:2">
       <c r="A3936">
-        <v>0.003297318582538064</v>
+        <v>0.003297318582538065</v>
       </c>
       <c r="B3936">
         <v>-0.006320901529986322</v>
@@ -31887,7 +31887,7 @@
     </row>
     <row r="3942" spans="1:2">
       <c r="A3942">
-        <v>-0.003072889122185695</v>
+        <v>-0.003072889122185696</v>
       </c>
       <c r="B3942">
         <v>-0.01565485438661662</v>
@@ -31895,7 +31895,7 @@
     </row>
     <row r="3943" spans="1:2">
       <c r="A3943">
-        <v>-0.003798519831691032</v>
+        <v>-0.003798519831691033</v>
       </c>
       <c r="B3943">
         <v>-0.01442671787968752</v>
@@ -31903,7 +31903,7 @@
     </row>
     <row r="3944" spans="1:2">
       <c r="A3944">
-        <v>-0.004529887695057253</v>
+        <v>-0.004529887695057252</v>
       </c>
       <c r="B3944">
         <v>-0.0132438069999572</v>
@@ -31911,7 +31911,7 @@
     </row>
     <row r="3945" spans="1:2">
       <c r="A3945">
-        <v>-0.005158298520297767</v>
+        <v>-0.005158298520297766</v>
       </c>
       <c r="B3945">
         <v>-0.01546502511776815</v>
@@ -31959,7 +31959,7 @@
     </row>
     <row r="3951" spans="1:2">
       <c r="A3951">
-        <v>-0.009694367863353648</v>
+        <v>-0.009694367863353646</v>
       </c>
       <c r="B3951">
         <v>-0.01248765030654475</v>
@@ -32007,7 +32007,7 @@
     </row>
     <row r="3957" spans="1:2">
       <c r="A3957">
-        <v>-0.01264925722790907</v>
+        <v>-0.01264925722790908</v>
       </c>
       <c r="B3957">
         <v>-0.00319536641080731</v>
@@ -32047,7 +32047,7 @@
     </row>
     <row r="3962" spans="1:2">
       <c r="A3962">
-        <v>-0.01583320030016844</v>
+        <v>-0.01583320030016845</v>
       </c>
       <c r="B3962">
         <v>0.0005997060228342121</v>
@@ -32111,7 +32111,7 @@
     </row>
     <row r="3970" spans="1:2">
       <c r="A3970">
-        <v>-0.01998839318625573</v>
+        <v>-0.01998839318625572</v>
       </c>
       <c r="B3970">
         <v>0.00902113373478608</v>
@@ -32151,7 +32151,7 @@
     </row>
     <row r="3975" spans="1:2">
       <c r="A3975">
-        <v>-0.02453023218684843</v>
+        <v>-0.02453023218684844</v>
       </c>
       <c r="B3975">
         <v>0.006858655635306299</v>
@@ -32239,7 +32239,7 @@
     </row>
     <row r="3986" spans="1:2">
       <c r="A3986">
-        <v>-0.03611903677813551</v>
+        <v>-0.0361190367781355</v>
       </c>
       <c r="B3986">
         <v>0.007401832315627743</v>
@@ -32247,7 +32247,7 @@
     </row>
     <row r="3987" spans="1:2">
       <c r="A3987">
-        <v>-0.03688253870729936</v>
+        <v>-0.03688253870729937</v>
       </c>
       <c r="B3987">
         <v>0.01317659446282393</v>
@@ -32359,7 +32359,7 @@
     </row>
     <row r="4001" spans="1:2">
       <c r="A4001">
-        <v>-0.04477340436042997</v>
+        <v>-0.04477340436042996</v>
       </c>
       <c r="B4001">
         <v>0.0262399224266141</v>
@@ -32375,7 +32375,7 @@
     </row>
     <row r="4003" spans="1:2">
       <c r="A4003">
-        <v>-0.04751577316590156</v>
+        <v>-0.04751577316590155</v>
       </c>
       <c r="B4003">
         <v>0.03688914138434907</v>
@@ -32383,7 +32383,7 @@
     </row>
     <row r="4004" spans="1:2">
       <c r="A4004">
-        <v>-0.04944716722745141</v>
+        <v>-0.04944716722745142</v>
       </c>
       <c r="B4004">
         <v>0.02539204273862561</v>
@@ -32415,7 +32415,7 @@
     </row>
     <row r="4008" spans="1:2">
       <c r="A4008">
-        <v>-0.05651104437078136</v>
+        <v>-0.05651104437078137</v>
       </c>
       <c r="B4008">
         <v>0.02851612501594447</v>
@@ -32471,7 +32471,7 @@
     </row>
     <row r="4015" spans="1:2">
       <c r="A4015">
-        <v>-0.06369942731142203</v>
+        <v>-0.06369942731142202</v>
       </c>
       <c r="B4015">
         <v>0.03167607133590344</v>
@@ -32527,7 +32527,7 @@
     </row>
     <row r="4022" spans="1:2">
       <c r="A4022">
-        <v>-0.07080472457799875</v>
+        <v>-0.07080472457799873</v>
       </c>
       <c r="B4022">
         <v>0.0357666293325547</v>
@@ -32591,7 +32591,7 @@
     </row>
     <row r="4030" spans="1:2">
       <c r="A4030">
-        <v>-0.07703086123911598</v>
+        <v>-0.077030861239116</v>
       </c>
       <c r="B4030">
         <v>0.05216764800680362</v>
@@ -32623,7 +32623,7 @@
     </row>
     <row r="4034" spans="1:2">
       <c r="A4034">
-        <v>-0.07868714396916812</v>
+        <v>-0.07868714396916814</v>
       </c>
       <c r="B4034">
         <v>0.07183548496372527</v>
@@ -32711,7 +32711,7 @@
     </row>
     <row r="4045" spans="1:2">
       <c r="A4045">
-        <v>-0.08450549087764839</v>
+        <v>-0.08450549087764837</v>
       </c>
       <c r="B4045">
         <v>0.07124895085972405</v>
@@ -32727,7 +32727,7 @@
     </row>
     <row r="4047" spans="1:2">
       <c r="A4047">
-        <v>-0.08469892030833595</v>
+        <v>-0.08469892030833596</v>
       </c>
       <c r="B4047">
         <v>0.08795665571424127</v>
@@ -32855,7 +32855,7 @@
     </row>
     <row r="4063" spans="1:2">
       <c r="A4063">
-        <v>-0.08824320696871842</v>
+        <v>-0.0882432069687184</v>
       </c>
       <c r="B4063">
         <v>0.06759825912478012</v>
@@ -32887,7 +32887,7 @@
     </row>
     <row r="4067" spans="1:2">
       <c r="A4067">
-        <v>-0.08564850903745258</v>
+        <v>-0.08564850903745257</v>
       </c>
       <c r="B4067">
         <v>0.07969824676092241</v>
@@ -32911,7 +32911,7 @@
     </row>
     <row r="4070" spans="1:2">
       <c r="A4070">
-        <v>-0.08004875471202488</v>
+        <v>-0.08004875471202487</v>
       </c>
       <c r="B4070">
         <v>0.07637352379523676</v>
@@ -32943,7 +32943,7 @@
     </row>
     <row r="4074" spans="1:2">
       <c r="A4074">
-        <v>-0.07188337420168243</v>
+        <v>-0.07188337420168245</v>
       </c>
       <c r="B4074">
         <v>0.09732522728633697</v>
@@ -32951,7 +32951,7 @@
     </row>
     <row r="4075" spans="1:2">
       <c r="A4075">
-        <v>-0.06956074719072797</v>
+        <v>-0.06956074719072795</v>
       </c>
       <c r="B4075">
         <v>0.09017947813374505</v>
@@ -32991,7 +32991,7 @@
     </row>
     <row r="4080" spans="1:2">
       <c r="A4080">
-        <v>-0.06296680762614575</v>
+        <v>-0.06296680762614573</v>
       </c>
       <c r="B4080">
         <v>0.08691039709611115</v>
@@ -33015,7 +33015,7 @@
     </row>
     <row r="4083" spans="1:2">
       <c r="A4083">
-        <v>-0.06348950871489259</v>
+        <v>-0.06348950871489258</v>
       </c>
       <c r="B4083">
         <v>0.0753034029425681</v>
@@ -33023,7 +33023,7 @@
     </row>
     <row r="4084" spans="1:2">
       <c r="A4084">
-        <v>-0.06426853133712956</v>
+        <v>-0.06426853133712958</v>
       </c>
       <c r="B4084">
         <v>0.07474147799415842</v>
@@ -33111,7 +33111,7 @@
     </row>
     <row r="4095" spans="1:2">
       <c r="A4095">
-        <v>-0.06490256067442875</v>
+        <v>-0.06490256067442873</v>
       </c>
       <c r="B4095">
         <v>0.04527281308060793</v>
@@ -33167,7 +33167,7 @@
     </row>
     <row r="4102" spans="1:2">
       <c r="A4102">
-        <v>-0.05315445349609903</v>
+        <v>-0.05315445349609904</v>
       </c>
       <c r="B4102">
         <v>0.06459514438251812</v>
@@ -33183,7 +33183,7 @@
     </row>
     <row r="4104" spans="1:2">
       <c r="A4104">
-        <v>-0.04984034147730229</v>
+        <v>-0.0498403414773023</v>
       </c>
       <c r="B4104">
         <v>0.06765848494244864</v>
@@ -33199,7 +33199,7 @@
     </row>
     <row r="4106" spans="1:2">
       <c r="A4106">
-        <v>-0.04732300982984947</v>
+        <v>-0.04732300982984946</v>
       </c>
       <c r="B4106">
         <v>0.06782411828866941</v>
@@ -33207,7 +33207,7 @@
     </row>
     <row r="4107" spans="1:2">
       <c r="A4107">
-        <v>-0.04616375568238548</v>
+        <v>-0.04616375568238549</v>
       </c>
       <c r="B4107">
         <v>0.07298439866104811</v>
@@ -33215,7 +33215,7 @@
     </row>
     <row r="4108" spans="1:2">
       <c r="A4108">
-        <v>-0.04536965067885549</v>
+        <v>-0.0453696506788555</v>
       </c>
       <c r="B4108">
         <v>0.06568500324986104</v>
@@ -33271,7 +33271,7 @@
     </row>
     <row r="4115" spans="1:2">
       <c r="A4115">
-        <v>-0.05027695468849517</v>
+        <v>-0.05027695468849516</v>
       </c>
       <c r="B4115">
         <v>0.04481672499810152</v>
@@ -33287,7 +33287,7 @@
     </row>
     <row r="4117" spans="1:2">
       <c r="A4117">
-        <v>-0.05256343311126599</v>
+        <v>-0.05256343311126598</v>
       </c>
       <c r="B4117">
         <v>0.03380197886789116</v>
@@ -33295,7 +33295,7 @@
     </row>
     <row r="4118" spans="1:2">
       <c r="A4118">
-        <v>-0.05360801459386635</v>
+        <v>-0.05360801459386636</v>
       </c>
       <c r="B4118">
         <v>0.0235865271948219</v>
@@ -33431,7 +33431,7 @@
     </row>
     <row r="4135" spans="1:2">
       <c r="A4135">
-        <v>-0.03841489987133124</v>
+        <v>-0.03841489987133125</v>
       </c>
       <c r="B4135">
         <v>0.06572536180860133</v>
@@ -33439,7 +33439,7 @@
     </row>
     <row r="4136" spans="1:2">
       <c r="A4136">
-        <v>-0.03716041120695585</v>
+        <v>-0.03716041120695586</v>
       </c>
       <c r="B4136">
         <v>0.06267937294198322</v>
@@ -33487,7 +33487,7 @@
     </row>
     <row r="4142" spans="1:2">
       <c r="A4142">
-        <v>-0.0330758555433813</v>
+        <v>-0.03307585554338129</v>
       </c>
       <c r="B4142">
         <v>0.06049173937272911</v>
@@ -33511,7 +33511,7 @@
     </row>
     <row r="4145" spans="1:2">
       <c r="A4145">
-        <v>-0.03449815595432612</v>
+        <v>-0.03449815595432611</v>
       </c>
       <c r="B4145">
         <v>0.04837169609446601</v>
@@ -33527,7 +33527,7 @@
     </row>
     <row r="4147" spans="1:2">
       <c r="A4147">
-        <v>-0.03567817979965679</v>
+        <v>-0.03567817979965678</v>
       </c>
       <c r="B4147">
         <v>0.03797271598411367</v>
@@ -33535,7 +33535,7 @@
     </row>
     <row r="4148" spans="1:2">
       <c r="A4148">
-        <v>-0.03597910113814593</v>
+        <v>-0.03597910113814594</v>
       </c>
       <c r="B4148">
         <v>0.03009017254987079</v>
@@ -33551,7 +33551,7 @@
     </row>
     <row r="4150" spans="1:2">
       <c r="A4150">
-        <v>-0.03616215634885706</v>
+        <v>-0.03616215634885705</v>
       </c>
       <c r="B4150">
         <v>0.02969023532144277</v>
@@ -33583,7 +33583,7 @@
     </row>
     <row r="4154" spans="1:2">
       <c r="A4154">
-        <v>-0.03584285171032587</v>
+        <v>-0.03584285171032588</v>
       </c>
       <c r="B4154">
         <v>0.02005890834836421</v>
@@ -33623,7 +33623,7 @@
     </row>
     <row r="4159" spans="1:2">
       <c r="A4159">
-        <v>-0.03451938661060798</v>
+        <v>-0.03451938661060797</v>
       </c>
       <c r="B4159">
         <v>0.01757331384212879</v>
@@ -33631,7 +33631,7 @@
     </row>
     <row r="4160" spans="1:2">
       <c r="A4160">
-        <v>-0.03350219265946798</v>
+        <v>-0.03350219265946797</v>
       </c>
       <c r="B4160">
         <v>0.02132414788206027</v>
@@ -33655,7 +33655,7 @@
     </row>
     <row r="4163" spans="1:2">
       <c r="A4163">
-        <v>-0.02916696184329894</v>
+        <v>-0.02916696184329893</v>
       </c>
       <c r="B4163">
         <v>0.0258348306674403</v>
@@ -33711,7 +33711,7 @@
     </row>
     <row r="4170" spans="1:2">
       <c r="A4170">
-        <v>-0.02077207532364611</v>
+        <v>-0.02077207532364612</v>
       </c>
       <c r="B4170">
         <v>0.04149582346268055</v>
@@ -33719,7 +33719,7 @@
     </row>
     <row r="4171" spans="1:2">
       <c r="A4171">
-        <v>-0.02060764550368724</v>
+        <v>-0.02060764550368723</v>
       </c>
       <c r="B4171">
         <v>0.03757363921401335</v>
@@ -33751,7 +33751,7 @@
     </row>
     <row r="4175" spans="1:2">
       <c r="A4175">
-        <v>-0.02131806118326047</v>
+        <v>-0.02131806118326046</v>
       </c>
       <c r="B4175">
         <v>0.02958637455480595</v>
@@ -33767,7 +33767,7 @@
     </row>
     <row r="4177" spans="1:2">
       <c r="A4177">
-        <v>-0.02187644018846705</v>
+        <v>-0.02187644018846704</v>
       </c>
       <c r="B4177">
         <v>0.0233617891175335</v>
@@ -34047,7 +34047,7 @@
     </row>
     <row r="4212" spans="1:2">
       <c r="A4212">
-        <v>-0.000974641091004258</v>
+        <v>-0.0009746410910042579</v>
       </c>
       <c r="B4212">
         <v>0.01559132151054765</v>
@@ -34111,7 +34111,7 @@
     </row>
     <row r="4220" spans="1:2">
       <c r="A4220">
-        <v>-0.0005857731608228642</v>
+        <v>-0.0005857731608228643</v>
       </c>
       <c r="B4220">
         <v>-0.0005213552983471814</v>
@@ -34127,7 +34127,7 @@
     </row>
     <row r="4222" spans="1:2">
       <c r="A4222">
-        <v>-0.0009712883925828422</v>
+        <v>-0.0009712883925828423</v>
       </c>
       <c r="B4222">
         <v>-0.004664177957828031</v>
@@ -34207,7 +34207,7 @@
     </row>
     <row r="4232" spans="1:2">
       <c r="A4232">
-        <v>0.006682472993061314</v>
+        <v>0.006682472993061315</v>
       </c>
       <c r="B4232">
         <v>0.002972535788025255</v>
@@ -34287,7 +34287,7 @@
     </row>
     <row r="4242" spans="1:2">
       <c r="A4242">
-        <v>0.01589303538257113</v>
+        <v>0.01589303538257112</v>
       </c>
       <c r="B4242">
         <v>0.006190834138636525</v>
@@ -34383,7 +34383,7 @@
     </row>
     <row r="4254" spans="1:2">
       <c r="A4254">
-        <v>0.02161073365705969</v>
+        <v>0.0216107336570597</v>
       </c>
       <c r="B4254">
         <v>-0.009954537726581947</v>
@@ -34575,7 +34575,7 @@
     </row>
     <row r="4278" spans="1:2">
       <c r="A4278">
-        <v>0.03785077125578671</v>
+        <v>0.0378507712557867</v>
       </c>
       <c r="B4278">
         <v>-0.01883652063543195</v>
@@ -34607,7 +34607,7 @@
     </row>
     <row r="4282" spans="1:2">
       <c r="A4282">
-        <v>0.0386974240873931</v>
+        <v>0.03869742408739311</v>
       </c>
       <c r="B4282">
         <v>-0.0298443911313262</v>
@@ -34623,7 +34623,7 @@
     </row>
     <row r="4284" spans="1:2">
       <c r="A4284">
-        <v>0.03858898481230857</v>
+        <v>0.03858898481230858</v>
       </c>
       <c r="B4284">
         <v>-0.03156661722413734</v>
@@ -34639,7 +34639,7 @@
     </row>
     <row r="4286" spans="1:2">
       <c r="A4286">
-        <v>0.03903640594906891</v>
+        <v>0.0390364059490689</v>
       </c>
       <c r="B4286">
         <v>-0.03117968739827326</v>
@@ -34727,7 +34727,7 @@
     </row>
     <row r="4297" spans="1:2">
       <c r="A4297">
-        <v>0.04523778626235471</v>
+        <v>0.04523778626235472</v>
       </c>
       <c r="B4297">
         <v>-0.032045640030681</v>
@@ -34751,7 +34751,7 @@
     </row>
     <row r="4300" spans="1:2">
       <c r="A4300">
-        <v>0.04628925960863862</v>
+        <v>0.04628925960863861</v>
       </c>
       <c r="B4300">
         <v>-0.03517711843341687</v>
@@ -34783,7 +34783,7 @@
     </row>
     <row r="4304" spans="1:2">
       <c r="A4304">
-        <v>0.04958049771323333</v>
+        <v>0.04958049771323334</v>
       </c>
       <c r="B4304">
         <v>-0.02826754383022045</v>
@@ -34799,7 +34799,7 @@
     </row>
     <row r="4306" spans="1:2">
       <c r="A4306">
-        <v>0.05030091020333483</v>
+        <v>0.05030091020333482</v>
       </c>
       <c r="B4306">
         <v>-0.02689059516145953</v>
@@ -34831,7 +34831,7 @@
     </row>
     <row r="4310" spans="1:2">
       <c r="A4310">
-        <v>0.05101920387826716</v>
+        <v>0.05101920387826715</v>
       </c>
       <c r="B4310">
         <v>-0.04083376210220457</v>
@@ -34871,7 +34871,7 @@
     </row>
     <row r="4315" spans="1:2">
       <c r="A4315">
-        <v>0.05164236219089405</v>
+        <v>0.05164236219089406</v>
       </c>
       <c r="B4315">
         <v>-0.04954285402814751</v>
@@ -34911,7 +34911,7 @@
     </row>
     <row r="4320" spans="1:2">
       <c r="A4320">
-        <v>0.05416074403816247</v>
+        <v>0.05416074403816246</v>
       </c>
       <c r="B4320">
         <v>-0.05308267458619564</v>
@@ -34935,7 +34935,7 @@
     </row>
     <row r="4323" spans="1:2">
       <c r="A4323">
-        <v>0.05855945295935256</v>
+        <v>0.05855945295935257</v>
       </c>
       <c r="B4323">
         <v>-0.03376992105467647</v>
@@ -34975,7 +34975,7 @@
     </row>
     <row r="4328" spans="1:2">
       <c r="A4328">
-        <v>0.06562281540308493</v>
+        <v>0.06562281540308491</v>
       </c>
       <c r="B4328">
         <v>-0.02817572384942801</v>
@@ -34983,7 +34983,7 @@
     </row>
     <row r="4329" spans="1:2">
       <c r="A4329">
-        <v>0.06737642460483406</v>
+        <v>0.06737642460483405</v>
       </c>
       <c r="B4329">
         <v>-0.03556607006299028</v>
@@ -35007,7 +35007,7 @@
     </row>
     <row r="4332" spans="1:2">
       <c r="A4332">
-        <v>0.06939935843303234</v>
+        <v>0.06939935843303235</v>
       </c>
       <c r="B4332">
         <v>-0.04431824237054505</v>
@@ -35071,7 +35071,7 @@
     </row>
     <row r="4340" spans="1:2">
       <c r="A4340">
-        <v>0.07720249974920902</v>
+        <v>0.07720249974920901</v>
       </c>
       <c r="B4340">
         <v>-0.05835872249952034</v>
@@ -35119,7 +35119,7 @@
     </row>
     <row r="4346" spans="1:2">
       <c r="A4346">
-        <v>0.08603130825989391</v>
+        <v>0.08603130825989393</v>
       </c>
       <c r="B4346">
         <v>-0.04608361753951895</v>
@@ -35135,7 +35135,7 @@
     </row>
     <row r="4348" spans="1:2">
       <c r="A4348">
-        <v>0.08912992052896317</v>
+        <v>0.08912992052896315</v>
       </c>
       <c r="B4348">
         <v>-0.06542350327779811</v>
@@ -35151,7 +35151,7 @@
     </row>
     <row r="4350" spans="1:2">
       <c r="A4350">
-        <v>0.09204249639058587</v>
+        <v>0.09204249639058586</v>
       </c>
       <c r="B4350">
         <v>-0.06308595225585023</v>
@@ -35191,7 +35191,7 @@
     </row>
     <row r="4355" spans="1:2">
       <c r="A4355">
-        <v>0.0981048841881568</v>
+        <v>0.09810488418815681</v>
       </c>
       <c r="B4355">
         <v>-0.07072497114097542</v>
@@ -35207,7 +35207,7 @@
     </row>
     <row r="4357" spans="1:2">
       <c r="A4357">
-        <v>0.09885275136427883</v>
+        <v>0.09885275136427882</v>
       </c>
       <c r="B4357">
         <v>-0.07259410582399584</v>
@@ -35215,7 +35215,7 @@
     </row>
     <row r="4358" spans="1:2">
       <c r="A4358">
-        <v>0.09859074443135407</v>
+        <v>0.09859074443135409</v>
       </c>
       <c r="B4358">
         <v>-0.08719788585679211</v>
@@ -35303,7 +35303,7 @@
     </row>
     <row r="4369" spans="1:2">
       <c r="A4369">
-        <v>0.1086049588381738</v>
+        <v>0.1086049588381739</v>
       </c>
       <c r="B4369">
         <v>-0.08019559914566088</v>
@@ -35335,7 +35335,7 @@
     </row>
     <row r="4373" spans="1:2">
       <c r="A4373">
-        <v>0.1161942742449459</v>
+        <v>0.116194274244946</v>
       </c>
       <c r="B4373">
         <v>-0.09110557588580415</v>
@@ -35415,7 +35415,7 @@
     </row>
     <row r="4383" spans="1:2">
       <c r="A4383">
-        <v>0.1281004769690066</v>
+        <v>0.1281004769690067</v>
       </c>
       <c r="B4383">
         <v>-0.09258454415393391</v>
@@ -35855,7 +35855,7 @@
     </row>
     <row r="4438" spans="1:2">
       <c r="A4438">
-        <v>0.09985629614366331</v>
+        <v>0.0998562961436633</v>
       </c>
       <c r="B4438">
         <v>-0.1106953690054384</v>
@@ -35863,7 +35863,7 @@
     </row>
     <row r="4439" spans="1:2">
       <c r="A4439">
-        <v>0.09867055851244785</v>
+        <v>0.09867055851244777</v>
       </c>
       <c r="B4439">
         <v>-0.1151556394290694</v>
